--- a/formulieren/03000.xlsx
+++ b/formulieren/03000.xlsx
@@ -11,8 +11,8 @@
     <sheet name="03405" sheetId="6" r:id="rId6"/>
     <sheet name="03410" sheetId="7" r:id="rId7"/>
     <sheet name="03411" sheetId="8" r:id="rId8"/>
-    <sheet name="03435" sheetId="9" r:id="rId9"/>
-    <sheet name="03850" sheetId="10" r:id="rId10"/>
+    <sheet name="03850" sheetId="9" r:id="rId9"/>
+    <sheet name="03435" sheetId="10" r:id="rId10"/>
   </sheets>
 </workbook>
 </file>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -423,7 +423,13 @@
         <v>regel template</v>
       </c>
       <c r="G1" t="str">
-        <v>P376</v>
+        <v>P313</v>
+      </c>
+      <c r="H1" t="str">
+        <v>E430</v>
+      </c>
+      <c r="I1" t="str">
+        <v>P384</v>
       </c>
     </row>
     <row r="2">
@@ -431,7 +437,7 @@
         <v>Soort verzekering</v>
       </c>
       <c r="B2" t="str">
-        <v>Doorlopende Reisverzekering</v>
+        <v>80908</v>
       </c>
       <c r="C2" t="str">
         <v/>
@@ -443,124 +449,160 @@
         <v/>
       </c>
       <c r="F2" t="str">
-        <v>02 Soort verzekering         Doorlopende Reisverzekering</v>
+        <v>02 Soort verzekering         80908</v>
       </c>
       <c r="G2" t="str">
+        <v>x</v>
+      </c>
+      <c r="H2" t="str">
+        <v>x</v>
+      </c>
+      <c r="I2" t="str">
         <v>x</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Dekkingsgebied</v>
+        <v/>
       </c>
       <c r="B3" t="str">
-        <v>10246</v>
+        <v>80908</v>
       </c>
       <c r="C3" t="str">
-        <v/>
+        <v>Omschrijving</v>
       </c>
       <c r="D3" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E3" t="str">
-        <v/>
+        <v>niet verwijderen</v>
       </c>
       <c r="F3" t="str">
-        <v>03 Dekkingsgebied            10246</v>
+        <v/>
       </c>
       <c r="G3" t="str">
+        <v>x</v>
+      </c>
+      <c r="H3" t="str">
+        <v>x</v>
+      </c>
+      <c r="I3" t="str">
         <v>x</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v/>
+        <v>Dekking</v>
       </c>
       <c r="B4" t="str">
-        <v>10246</v>
+        <v>86355</v>
       </c>
       <c r="C4" t="str">
-        <v>Omschrijving</v>
+        <v/>
       </c>
       <c r="D4" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E4" t="str">
-        <v>verwijderen</v>
+        <v/>
       </c>
       <c r="F4" t="str">
-        <v/>
+        <v>04 Dekking                   86355</v>
       </c>
       <c r="G4" t="str">
+        <v/>
+      </c>
+      <c r="H4" t="str">
+        <v>x</v>
+      </c>
+      <c r="I4" t="str">
         <v>x</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Gezinssamenstelling</v>
+        <v/>
       </c>
       <c r="B5" t="str">
-        <v>10694</v>
+        <v>86355</v>
       </c>
       <c r="C5" t="str">
-        <v/>
+        <v>Omschrijving</v>
       </c>
       <c r="D5" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E5" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F5" t="str">
-        <v>04 Gezinssamenstelling       10694</v>
+        <v/>
       </c>
       <c r="G5" t="str">
+        <v/>
+      </c>
+      <c r="H5" t="str">
+        <v>x</v>
+      </c>
+      <c r="I5" t="str">
         <v>x</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v/>
+        <v>Reisperiode</v>
       </c>
       <c r="B6" t="str">
-        <v>10694</v>
+        <v>Van 11826 tot en met 11825</v>
       </c>
       <c r="C6" t="str">
-        <v>Omschrijving</v>
+        <v/>
       </c>
       <c r="D6" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E6" t="str">
-        <v>verwijderen</v>
+        <v/>
       </c>
       <c r="F6" t="str">
-        <v/>
+        <v>04 Reisperiode               Van 11826 tot en met 11825</v>
       </c>
       <c r="G6" t="str">
+        <v>x</v>
+      </c>
+      <c r="H6" t="str">
+        <v>x</v>
+      </c>
+      <c r="I6" t="str">
         <v>x</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Maximale reisduur</v>
+        <v/>
       </c>
       <c r="B7" t="str">
-        <v>11497 dagen</v>
+        <v>11826</v>
       </c>
       <c r="C7" t="str">
-        <v/>
+        <v>Datum (DD mmm EEJJ)</v>
       </c>
       <c r="D7" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E7" t="str">
-        <v/>
+        <v>niet verwijderen</v>
       </c>
       <c r="F7" t="str">
-        <v>05 Maximale reisduur         11497 dagen</v>
+        <v/>
       </c>
       <c r="G7" t="str">
+        <v>x</v>
+      </c>
+      <c r="H7" t="str">
+        <v>x</v>
+      </c>
+      <c r="I7" t="str">
         <v>x</v>
       </c>
     </row>
@@ -569,30 +611,36 @@
         <v/>
       </c>
       <c r="B8" t="str">
-        <v>11497</v>
+        <v>11825</v>
       </c>
       <c r="C8" t="str">
-        <v>Getal exclusief decimalen</v>
+        <v>Datum (DD mmm EEJJ)</v>
       </c>
       <c r="D8" t="str">
         <v>Links</v>
       </c>
       <c r="E8" t="str">
-        <v>verwijderen</v>
+        <v>niet verwijderen</v>
       </c>
       <c r="F8" t="str">
         <v/>
       </c>
       <c r="G8" t="str">
+        <v>x</v>
+      </c>
+      <c r="H8" t="str">
+        <v>x</v>
+      </c>
+      <c r="I8" t="str">
         <v>x</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Rubriek zakenreis</v>
+        <v>Boekdatum van de reis</v>
       </c>
       <c r="B9" t="str">
-        <v>11797</v>
+        <v>11827</v>
       </c>
       <c r="C9" t="str">
         <v/>
@@ -604,9 +652,15 @@
         <v/>
       </c>
       <c r="F9" t="str">
-        <v>06 Rubriek zakenreis         11797</v>
+        <v>05 Boekdatum van de reis     11827</v>
       </c>
       <c r="G9" t="str">
+        <v>x</v>
+      </c>
+      <c r="H9" t="str">
+        <v>x</v>
+      </c>
+      <c r="I9" t="str">
         <v>x</v>
       </c>
     </row>
@@ -615,30 +669,36 @@
         <v/>
       </c>
       <c r="B10" t="str">
-        <v>11797</v>
+        <v>11827</v>
       </c>
       <c r="C10" t="str">
-        <v/>
+        <v>Datum (DD mmm EEJJ)</v>
       </c>
       <c r="D10" t="str">
         <v>Links</v>
       </c>
       <c r="E10" t="str">
-        <v>verwijderen</v>
+        <v>niet verwijderen</v>
       </c>
       <c r="F10" t="str">
         <v/>
       </c>
       <c r="G10" t="str">
+        <v>x</v>
+      </c>
+      <c r="H10" t="str">
+        <v>x</v>
+      </c>
+      <c r="I10" t="str">
         <v>x</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Alarmnummer</v>
+        <v>Uitsluiten Medische kosten</v>
       </c>
       <c r="B11" t="str">
-        <v>In geval van calamiteiten kunt u contact opnemen met de alarmcentrale</v>
+        <v>83164</v>
       </c>
       <c r="C11" t="str">
         <v/>
@@ -650,61 +710,1703 @@
         <v/>
       </c>
       <c r="F11" t="str">
-        <v>08 Alarmnummer               In geval van calamiteiten kunt u contact opnemen met de alarmcentrale</v>
+        <v>05 Uitsluiten Medische kosten83164</v>
       </c>
       <c r="G11" t="str">
+        <v/>
+      </c>
+      <c r="H11" t="str">
+        <v>x</v>
+      </c>
+      <c r="I11" t="str">
         <v>x</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>n/a</v>
+        <v/>
       </c>
       <c r="B12" t="str">
-        <v>onder telefoonnummer +31 26 400 23 90.</v>
+        <v>83164</v>
       </c>
       <c r="C12" t="str">
         <v/>
       </c>
       <c r="D12" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E12" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F12" t="str">
-        <v>09                           onder telefoonnummer +31 26 400 23 90.</v>
+        <v/>
       </c>
       <c r="G12" t="str">
+        <v/>
+      </c>
+      <c r="H12" t="str">
+        <v>x</v>
+      </c>
+      <c r="I12" t="str">
         <v>x</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
+        <v>Dekkingsgebied</v>
+      </c>
+      <c r="B13" t="str">
+        <v>10246</v>
+      </c>
+      <c r="C13" t="str">
+        <v/>
+      </c>
+      <c r="D13" t="str">
+        <v/>
+      </c>
+      <c r="E13" t="str">
+        <v/>
+      </c>
+      <c r="F13" t="str">
+        <v>06 Dekkingsgebied            10246</v>
+      </c>
+      <c r="G13" t="str">
+        <v>x</v>
+      </c>
+      <c r="H13" t="str">
+        <v>x</v>
+      </c>
+      <c r="I13" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v/>
+      </c>
+      <c r="B14" t="str">
+        <v>10246</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Omschrijving</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E14" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F14" t="str">
+        <v/>
+      </c>
+      <c r="G14" t="str">
+        <v>x</v>
+      </c>
+      <c r="H14" t="str">
+        <v>x</v>
+      </c>
+      <c r="I14" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Uitsluiten Ongevallen</v>
+      </c>
+      <c r="B15" t="str">
+        <v>86392</v>
+      </c>
+      <c r="C15" t="str">
+        <v/>
+      </c>
+      <c r="D15" t="str">
+        <v/>
+      </c>
+      <c r="E15" t="str">
+        <v/>
+      </c>
+      <c r="F15" t="str">
+        <v>06 Uitsluiten Ongevallen     86392</v>
+      </c>
+      <c r="G15" t="str">
+        <v/>
+      </c>
+      <c r="H15" t="str">
+        <v>x</v>
+      </c>
+      <c r="I15" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v/>
+      </c>
+      <c r="B16" t="str">
+        <v>86392</v>
+      </c>
+      <c r="C16" t="str">
+        <v/>
+      </c>
+      <c r="D16" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E16" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F16" t="str">
+        <v/>
+      </c>
+      <c r="G16" t="str">
+        <v/>
+      </c>
+      <c r="H16" t="str">
+        <v>x</v>
+      </c>
+      <c r="I16" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>n/a</v>
+      </c>
+      <c r="B17" t="str">
+        <v>10630</v>
+      </c>
+      <c r="C17" t="str">
+        <v/>
+      </c>
+      <c r="D17" t="str">
+        <v/>
+      </c>
+      <c r="E17" t="str">
+        <v/>
+      </c>
+      <c r="F17" t="str">
+        <v>07                                                                                                 10630</v>
+      </c>
+      <c r="G17" t="str">
+        <v>x</v>
+      </c>
+      <c r="H17" t="str">
+        <v>x</v>
+      </c>
+      <c r="I17" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v/>
+      </c>
+      <c r="B18" t="str">
+        <v>10630</v>
+      </c>
+      <c r="C18" t="str">
+        <v/>
+      </c>
+      <c r="D18" t="str">
+        <v>Rechts</v>
+      </c>
+      <c r="E18" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F18" t="str">
+        <v/>
+      </c>
+      <c r="G18" t="str">
+        <v>x</v>
+      </c>
+      <c r="H18" t="str">
+        <v>x</v>
+      </c>
+      <c r="I18" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Verzekerden</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Naam                       Geboortedatum                              10630</v>
+      </c>
+      <c r="C19" t="str">
+        <v/>
+      </c>
+      <c r="D19" t="str">
+        <v/>
+      </c>
+      <c r="E19" t="str">
+        <v/>
+      </c>
+      <c r="F19" t="str">
+        <v>08 Verzekerden               Naam                       Geboortedatum                              10630</v>
+      </c>
+      <c r="G19" t="str">
+        <v>x</v>
+      </c>
+      <c r="H19" t="str">
+        <v>x</v>
+      </c>
+      <c r="I19" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v/>
+      </c>
+      <c r="B20" t="str">
+        <v>10630</v>
+      </c>
+      <c r="C20" t="str">
+        <v/>
+      </c>
+      <c r="D20" t="str">
+        <v>Rechts</v>
+      </c>
+      <c r="E20" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F20" t="str">
+        <v/>
+      </c>
+      <c r="G20" t="str">
+        <v>x</v>
+      </c>
+      <c r="H20" t="str">
+        <v>x</v>
+      </c>
+      <c r="I20" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>n/a</v>
+      </c>
+      <c r="B21" t="str">
+        <v>10631 10632 10630                      10633</v>
+      </c>
+      <c r="C21" t="str">
+        <v/>
+      </c>
+      <c r="D21" t="str">
+        <v/>
+      </c>
+      <c r="E21" t="str">
+        <v/>
+      </c>
+      <c r="F21" t="str">
+        <v>09                           10631 10632 10630                      10633</v>
+      </c>
+      <c r="G21" t="str">
+        <v>x</v>
+      </c>
+      <c r="H21" t="str">
+        <v>x</v>
+      </c>
+      <c r="I21" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v/>
+      </c>
+      <c r="B22" t="str">
+        <v>10631</v>
+      </c>
+      <c r="C22" t="str">
+        <v/>
+      </c>
+      <c r="D22" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E22" t="str">
+        <v>niet verwijderen</v>
+      </c>
+      <c r="F22" t="str">
+        <v/>
+      </c>
+      <c r="G22" t="str">
+        <v>x</v>
+      </c>
+      <c r="H22" t="str">
+        <v>x</v>
+      </c>
+      <c r="I22" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v/>
+      </c>
+      <c r="B23" t="str">
+        <v>10632</v>
+      </c>
+      <c r="C23" t="str">
+        <v/>
+      </c>
+      <c r="D23" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E23" t="str">
+        <v>niet verwijderen</v>
+      </c>
+      <c r="F23" t="str">
+        <v/>
+      </c>
+      <c r="G23" t="str">
+        <v>x</v>
+      </c>
+      <c r="H23" t="str">
+        <v>x</v>
+      </c>
+      <c r="I23" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v/>
+      </c>
+      <c r="B24" t="str">
+        <v>10630</v>
+      </c>
+      <c r="C24" t="str">
+        <v/>
+      </c>
+      <c r="D24" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E24" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F24" t="str">
+        <v/>
+      </c>
+      <c r="G24" t="str">
+        <v>x</v>
+      </c>
+      <c r="H24" t="str">
+        <v>x</v>
+      </c>
+      <c r="I24" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v/>
+      </c>
+      <c r="B25" t="str">
+        <v>10633</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Datum (DD-MM-EEJJ)</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E25" t="str">
+        <v>niet verwijderen</v>
+      </c>
+      <c r="F25" t="str">
+        <v/>
+      </c>
+      <c r="G25" t="str">
+        <v>x</v>
+      </c>
+      <c r="H25" t="str">
+        <v>x</v>
+      </c>
+      <c r="I25" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>n/a</v>
+      </c>
+      <c r="B26" t="str">
+        <v>10637 10638 10636                      10639</v>
+      </c>
+      <c r="C26" t="str">
+        <v/>
+      </c>
+      <c r="D26" t="str">
+        <v/>
+      </c>
+      <c r="E26" t="str">
+        <v/>
+      </c>
+      <c r="F26" t="str">
+        <v>10                           10637 10638 10636                      10639</v>
+      </c>
+      <c r="G26" t="str">
+        <v>x</v>
+      </c>
+      <c r="H26" t="str">
+        <v>x</v>
+      </c>
+      <c r="I26" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v/>
+      </c>
+      <c r="B27" t="str">
+        <v>10637</v>
+      </c>
+      <c r="C27" t="str">
+        <v/>
+      </c>
+      <c r="D27" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E27" t="str">
+        <v>niet verwijderen</v>
+      </c>
+      <c r="F27" t="str">
+        <v/>
+      </c>
+      <c r="G27" t="str">
+        <v>x</v>
+      </c>
+      <c r="H27" t="str">
+        <v>x</v>
+      </c>
+      <c r="I27" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v/>
+      </c>
+      <c r="B28" t="str">
+        <v>10638</v>
+      </c>
+      <c r="C28" t="str">
+        <v/>
+      </c>
+      <c r="D28" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E28" t="str">
+        <v>niet verwijderen</v>
+      </c>
+      <c r="F28" t="str">
+        <v/>
+      </c>
+      <c r="G28" t="str">
+        <v>x</v>
+      </c>
+      <c r="H28" t="str">
+        <v>x</v>
+      </c>
+      <c r="I28" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v/>
+      </c>
+      <c r="B29" t="str">
+        <v>10636</v>
+      </c>
+      <c r="C29" t="str">
+        <v/>
+      </c>
+      <c r="D29" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E29" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F29" t="str">
+        <v/>
+      </c>
+      <c r="G29" t="str">
+        <v>x</v>
+      </c>
+      <c r="H29" t="str">
+        <v>x</v>
+      </c>
+      <c r="I29" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v/>
+      </c>
+      <c r="B30" t="str">
+        <v>10639</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Datum (DD-MM-EEJJ)</v>
+      </c>
+      <c r="D30" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E30" t="str">
+        <v>niet verwijderen</v>
+      </c>
+      <c r="F30" t="str">
+        <v/>
+      </c>
+      <c r="G30" t="str">
+        <v>x</v>
+      </c>
+      <c r="H30" t="str">
+        <v>x</v>
+      </c>
+      <c r="I30" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>n/a</v>
+      </c>
+      <c r="B31" t="str">
+        <v>10643 10644 10642                      10645</v>
+      </c>
+      <c r="C31" t="str">
+        <v/>
+      </c>
+      <c r="D31" t="str">
+        <v/>
+      </c>
+      <c r="E31" t="str">
+        <v/>
+      </c>
+      <c r="F31" t="str">
+        <v>11                           10643 10644 10642                      10645</v>
+      </c>
+      <c r="G31" t="str">
+        <v>x</v>
+      </c>
+      <c r="H31" t="str">
+        <v>x</v>
+      </c>
+      <c r="I31" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v/>
+      </c>
+      <c r="B32" t="str">
+        <v>10643</v>
+      </c>
+      <c r="C32" t="str">
+        <v/>
+      </c>
+      <c r="D32" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E32" t="str">
+        <v>niet verwijderen</v>
+      </c>
+      <c r="F32" t="str">
+        <v/>
+      </c>
+      <c r="G32" t="str">
+        <v>x</v>
+      </c>
+      <c r="H32" t="str">
+        <v>x</v>
+      </c>
+      <c r="I32" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v/>
+      </c>
+      <c r="B33" t="str">
+        <v>10644</v>
+      </c>
+      <c r="C33" t="str">
+        <v/>
+      </c>
+      <c r="D33" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E33" t="str">
+        <v>niet verwijderen</v>
+      </c>
+      <c r="F33" t="str">
+        <v/>
+      </c>
+      <c r="G33" t="str">
+        <v>x</v>
+      </c>
+      <c r="H33" t="str">
+        <v>x</v>
+      </c>
+      <c r="I33" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v/>
+      </c>
+      <c r="B34" t="str">
+        <v>10642</v>
+      </c>
+      <c r="C34" t="str">
+        <v/>
+      </c>
+      <c r="D34" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E34" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F34" t="str">
+        <v/>
+      </c>
+      <c r="G34" t="str">
+        <v>x</v>
+      </c>
+      <c r="H34" t="str">
+        <v>x</v>
+      </c>
+      <c r="I34" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v/>
+      </c>
+      <c r="B35" t="str">
+        <v>10645</v>
+      </c>
+      <c r="C35" t="str">
+        <v>Datum (DD-MM-EEJJ)</v>
+      </c>
+      <c r="D35" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E35" t="str">
+        <v>niet verwijderen</v>
+      </c>
+      <c r="F35" t="str">
+        <v/>
+      </c>
+      <c r="G35" t="str">
+        <v>x</v>
+      </c>
+      <c r="H35" t="str">
+        <v>x</v>
+      </c>
+      <c r="I35" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>n/a</v>
+      </c>
+      <c r="B36" t="str">
+        <v>10649 10650 10648                      10651</v>
+      </c>
+      <c r="C36" t="str">
+        <v/>
+      </c>
+      <c r="D36" t="str">
+        <v/>
+      </c>
+      <c r="E36" t="str">
+        <v/>
+      </c>
+      <c r="F36" t="str">
+        <v>12                           10649 10650 10648                      10651</v>
+      </c>
+      <c r="G36" t="str">
+        <v>x</v>
+      </c>
+      <c r="H36" t="str">
+        <v>x</v>
+      </c>
+      <c r="I36" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v/>
+      </c>
+      <c r="B37" t="str">
+        <v>10649</v>
+      </c>
+      <c r="C37" t="str">
+        <v/>
+      </c>
+      <c r="D37" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E37" t="str">
+        <v>niet verwijderen</v>
+      </c>
+      <c r="F37" t="str">
+        <v/>
+      </c>
+      <c r="G37" t="str">
+        <v>x</v>
+      </c>
+      <c r="H37" t="str">
+        <v>x</v>
+      </c>
+      <c r="I37" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v/>
+      </c>
+      <c r="B38" t="str">
+        <v>10650</v>
+      </c>
+      <c r="C38" t="str">
+        <v/>
+      </c>
+      <c r="D38" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E38" t="str">
+        <v>niet verwijderen</v>
+      </c>
+      <c r="F38" t="str">
+        <v/>
+      </c>
+      <c r="G38" t="str">
+        <v>x</v>
+      </c>
+      <c r="H38" t="str">
+        <v>x</v>
+      </c>
+      <c r="I38" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v/>
+      </c>
+      <c r="B39" t="str">
+        <v>10648</v>
+      </c>
+      <c r="C39" t="str">
+        <v/>
+      </c>
+      <c r="D39" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E39" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F39" t="str">
+        <v/>
+      </c>
+      <c r="G39" t="str">
+        <v>x</v>
+      </c>
+      <c r="H39" t="str">
+        <v>x</v>
+      </c>
+      <c r="I39" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v/>
+      </c>
+      <c r="B40" t="str">
+        <v>10651</v>
+      </c>
+      <c r="C40" t="str">
+        <v>Datum (DD-MM-EEJJ)</v>
+      </c>
+      <c r="D40" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E40" t="str">
+        <v>niet verwijderen</v>
+      </c>
+      <c r="F40" t="str">
+        <v/>
+      </c>
+      <c r="G40" t="str">
+        <v>x</v>
+      </c>
+      <c r="H40" t="str">
+        <v>x</v>
+      </c>
+      <c r="I40" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>n/a</v>
+      </c>
+      <c r="B41" t="str">
+        <v>10655 10656 10654                      10657</v>
+      </c>
+      <c r="C41" t="str">
+        <v/>
+      </c>
+      <c r="D41" t="str">
+        <v/>
+      </c>
+      <c r="E41" t="str">
+        <v/>
+      </c>
+      <c r="F41" t="str">
+        <v>13                           10655 10656 10654                      10657</v>
+      </c>
+      <c r="G41" t="str">
+        <v>x</v>
+      </c>
+      <c r="H41" t="str">
+        <v>x</v>
+      </c>
+      <c r="I41" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v/>
+      </c>
+      <c r="B42" t="str">
+        <v>10655</v>
+      </c>
+      <c r="C42" t="str">
+        <v/>
+      </c>
+      <c r="D42" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E42" t="str">
+        <v>niet verwijderen</v>
+      </c>
+      <c r="F42" t="str">
+        <v/>
+      </c>
+      <c r="G42" t="str">
+        <v>x</v>
+      </c>
+      <c r="H42" t="str">
+        <v>x</v>
+      </c>
+      <c r="I42" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v/>
+      </c>
+      <c r="B43" t="str">
+        <v>10656</v>
+      </c>
+      <c r="C43" t="str">
+        <v/>
+      </c>
+      <c r="D43" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E43" t="str">
+        <v>niet verwijderen</v>
+      </c>
+      <c r="F43" t="str">
+        <v/>
+      </c>
+      <c r="G43" t="str">
+        <v>x</v>
+      </c>
+      <c r="H43" t="str">
+        <v>x</v>
+      </c>
+      <c r="I43" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v/>
+      </c>
+      <c r="B44" t="str">
+        <v>10654</v>
+      </c>
+      <c r="C44" t="str">
+        <v/>
+      </c>
+      <c r="D44" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E44" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F44" t="str">
+        <v/>
+      </c>
+      <c r="G44" t="str">
+        <v>x</v>
+      </c>
+      <c r="H44" t="str">
+        <v>x</v>
+      </c>
+      <c r="I44" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v/>
+      </c>
+      <c r="B45" t="str">
+        <v>10657</v>
+      </c>
+      <c r="C45" t="str">
+        <v>Datum (DD-MM-EEJJ)</v>
+      </c>
+      <c r="D45" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E45" t="str">
+        <v>niet verwijderen</v>
+      </c>
+      <c r="F45" t="str">
+        <v/>
+      </c>
+      <c r="G45" t="str">
+        <v>x</v>
+      </c>
+      <c r="H45" t="str">
+        <v>x</v>
+      </c>
+      <c r="I45" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>n/a</v>
+      </c>
+      <c r="B46" t="str">
+        <v>10661 10662 10660                      10663</v>
+      </c>
+      <c r="C46" t="str">
+        <v/>
+      </c>
+      <c r="D46" t="str">
+        <v/>
+      </c>
+      <c r="E46" t="str">
+        <v/>
+      </c>
+      <c r="F46" t="str">
+        <v>14                           10661 10662 10660                      10663</v>
+      </c>
+      <c r="G46" t="str">
+        <v>x</v>
+      </c>
+      <c r="H46" t="str">
+        <v>x</v>
+      </c>
+      <c r="I46" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v/>
+      </c>
+      <c r="B47" t="str">
+        <v>10661</v>
+      </c>
+      <c r="C47" t="str">
+        <v/>
+      </c>
+      <c r="D47" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E47" t="str">
+        <v>niet verwijderen</v>
+      </c>
+      <c r="F47" t="str">
+        <v/>
+      </c>
+      <c r="G47" t="str">
+        <v>x</v>
+      </c>
+      <c r="H47" t="str">
+        <v>x</v>
+      </c>
+      <c r="I47" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v/>
+      </c>
+      <c r="B48" t="str">
+        <v>10662</v>
+      </c>
+      <c r="C48" t="str">
+        <v/>
+      </c>
+      <c r="D48" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E48" t="str">
+        <v>niet verwijderen</v>
+      </c>
+      <c r="F48" t="str">
+        <v/>
+      </c>
+      <c r="G48" t="str">
+        <v>x</v>
+      </c>
+      <c r="H48" t="str">
+        <v>x</v>
+      </c>
+      <c r="I48" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v/>
+      </c>
+      <c r="B49" t="str">
+        <v>10660</v>
+      </c>
+      <c r="C49" t="str">
+        <v/>
+      </c>
+      <c r="D49" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E49" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F49" t="str">
+        <v/>
+      </c>
+      <c r="G49" t="str">
+        <v>x</v>
+      </c>
+      <c r="H49" t="str">
+        <v>x</v>
+      </c>
+      <c r="I49" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v/>
+      </c>
+      <c r="B50" t="str">
+        <v>10663</v>
+      </c>
+      <c r="C50" t="str">
+        <v>Datum (DD-MM-EEJJ)</v>
+      </c>
+      <c r="D50" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E50" t="str">
+        <v>niet verwijderen</v>
+      </c>
+      <c r="F50" t="str">
+        <v/>
+      </c>
+      <c r="G50" t="str">
+        <v>x</v>
+      </c>
+      <c r="H50" t="str">
+        <v>x</v>
+      </c>
+      <c r="I50" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>n/a</v>
+      </c>
+      <c r="B51" t="str">
+        <v>10667 10668 10666                      10669</v>
+      </c>
+      <c r="C51" t="str">
+        <v/>
+      </c>
+      <c r="D51" t="str">
+        <v/>
+      </c>
+      <c r="E51" t="str">
+        <v/>
+      </c>
+      <c r="F51" t="str">
+        <v>15                           10667 10668 10666                      10669</v>
+      </c>
+      <c r="G51" t="str">
+        <v>x</v>
+      </c>
+      <c r="H51" t="str">
+        <v>x</v>
+      </c>
+      <c r="I51" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v/>
+      </c>
+      <c r="B52" t="str">
+        <v>10667</v>
+      </c>
+      <c r="C52" t="str">
+        <v/>
+      </c>
+      <c r="D52" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E52" t="str">
+        <v>niet verwijderen</v>
+      </c>
+      <c r="F52" t="str">
+        <v/>
+      </c>
+      <c r="G52" t="str">
+        <v>x</v>
+      </c>
+      <c r="H52" t="str">
+        <v>x</v>
+      </c>
+      <c r="I52" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v/>
+      </c>
+      <c r="B53" t="str">
+        <v>10668</v>
+      </c>
+      <c r="C53" t="str">
+        <v/>
+      </c>
+      <c r="D53" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E53" t="str">
+        <v>niet verwijderen</v>
+      </c>
+      <c r="F53" t="str">
+        <v/>
+      </c>
+      <c r="G53" t="str">
+        <v>x</v>
+      </c>
+      <c r="H53" t="str">
+        <v>x</v>
+      </c>
+      <c r="I53" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v/>
+      </c>
+      <c r="B54" t="str">
+        <v>10666</v>
+      </c>
+      <c r="C54" t="str">
+        <v/>
+      </c>
+      <c r="D54" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E54" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F54" t="str">
+        <v/>
+      </c>
+      <c r="G54" t="str">
+        <v>x</v>
+      </c>
+      <c r="H54" t="str">
+        <v>x</v>
+      </c>
+      <c r="I54" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v/>
+      </c>
+      <c r="B55" t="str">
+        <v>10669</v>
+      </c>
+      <c r="C55" t="str">
+        <v>Datum (DD-MM-EEJJ)</v>
+      </c>
+      <c r="D55" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E55" t="str">
+        <v>niet verwijderen</v>
+      </c>
+      <c r="F55" t="str">
+        <v/>
+      </c>
+      <c r="G55" t="str">
+        <v>x</v>
+      </c>
+      <c r="H55" t="str">
+        <v>x</v>
+      </c>
+      <c r="I55" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>n/a</v>
+      </c>
+      <c r="B56" t="str">
+        <v>10673 10674 10672                      10675</v>
+      </c>
+      <c r="C56" t="str">
+        <v/>
+      </c>
+      <c r="D56" t="str">
+        <v/>
+      </c>
+      <c r="E56" t="str">
+        <v/>
+      </c>
+      <c r="F56" t="str">
+        <v>16                           10673 10674 10672                      10675</v>
+      </c>
+      <c r="G56" t="str">
+        <v>x</v>
+      </c>
+      <c r="H56" t="str">
+        <v>x</v>
+      </c>
+      <c r="I56" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v/>
+      </c>
+      <c r="B57" t="str">
+        <v>10673</v>
+      </c>
+      <c r="C57" t="str">
+        <v/>
+      </c>
+      <c r="D57" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E57" t="str">
+        <v>niet verwijderen</v>
+      </c>
+      <c r="F57" t="str">
+        <v/>
+      </c>
+      <c r="G57" t="str">
+        <v>x</v>
+      </c>
+      <c r="H57" t="str">
+        <v>x</v>
+      </c>
+      <c r="I57" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v/>
+      </c>
+      <c r="B58" t="str">
+        <v>10674</v>
+      </c>
+      <c r="C58" t="str">
+        <v/>
+      </c>
+      <c r="D58" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E58" t="str">
+        <v>niet verwijderen</v>
+      </c>
+      <c r="F58" t="str">
+        <v/>
+      </c>
+      <c r="G58" t="str">
+        <v>x</v>
+      </c>
+      <c r="H58" t="str">
+        <v>x</v>
+      </c>
+      <c r="I58" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v/>
+      </c>
+      <c r="B59" t="str">
+        <v>10672</v>
+      </c>
+      <c r="C59" t="str">
+        <v/>
+      </c>
+      <c r="D59" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E59" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F59" t="str">
+        <v/>
+      </c>
+      <c r="G59" t="str">
+        <v>x</v>
+      </c>
+      <c r="H59" t="str">
+        <v>x</v>
+      </c>
+      <c r="I59" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v/>
+      </c>
+      <c r="B60" t="str">
+        <v>10675</v>
+      </c>
+      <c r="C60" t="str">
+        <v>Datum (DD-MM-EEJJ)</v>
+      </c>
+      <c r="D60" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E60" t="str">
+        <v>niet verwijderen</v>
+      </c>
+      <c r="F60" t="str">
+        <v/>
+      </c>
+      <c r="G60" t="str">
+        <v>x</v>
+      </c>
+      <c r="H60" t="str">
+        <v>x</v>
+      </c>
+      <c r="I60" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>n/a</v>
+      </c>
+      <c r="B61" t="str">
+        <v>10679 10680 10678                      10681</v>
+      </c>
+      <c r="C61" t="str">
+        <v/>
+      </c>
+      <c r="D61" t="str">
+        <v/>
+      </c>
+      <c r="E61" t="str">
+        <v/>
+      </c>
+      <c r="F61" t="str">
+        <v>17                           10679 10680 10678                      10681</v>
+      </c>
+      <c r="G61" t="str">
+        <v>x</v>
+      </c>
+      <c r="H61" t="str">
+        <v>x</v>
+      </c>
+      <c r="I61" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v/>
+      </c>
+      <c r="B62" t="str">
+        <v>10679</v>
+      </c>
+      <c r="C62" t="str">
+        <v/>
+      </c>
+      <c r="D62" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E62" t="str">
+        <v>niet verwijderen</v>
+      </c>
+      <c r="F62" t="str">
+        <v/>
+      </c>
+      <c r="G62" t="str">
+        <v>x</v>
+      </c>
+      <c r="H62" t="str">
+        <v>x</v>
+      </c>
+      <c r="I62" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v/>
+      </c>
+      <c r="B63" t="str">
+        <v>10680</v>
+      </c>
+      <c r="C63" t="str">
+        <v/>
+      </c>
+      <c r="D63" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E63" t="str">
+        <v>niet verwijderen</v>
+      </c>
+      <c r="F63" t="str">
+        <v/>
+      </c>
+      <c r="G63" t="str">
+        <v>x</v>
+      </c>
+      <c r="H63" t="str">
+        <v>x</v>
+      </c>
+      <c r="I63" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v/>
+      </c>
+      <c r="B64" t="str">
+        <v>10678</v>
+      </c>
+      <c r="C64" t="str">
+        <v/>
+      </c>
+      <c r="D64" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E64" t="str">
+        <v>verwijderen</v>
+      </c>
+      <c r="F64" t="str">
+        <v/>
+      </c>
+      <c r="G64" t="str">
+        <v>x</v>
+      </c>
+      <c r="H64" t="str">
+        <v>x</v>
+      </c>
+      <c r="I64" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v/>
+      </c>
+      <c r="B65" t="str">
+        <v>10681</v>
+      </c>
+      <c r="C65" t="str">
+        <v>Datum (DD-MM-EEJJ)</v>
+      </c>
+      <c r="D65" t="str">
+        <v>Links</v>
+      </c>
+      <c r="E65" t="str">
+        <v>niet verwijderen</v>
+      </c>
+      <c r="F65" t="str">
+        <v/>
+      </c>
+      <c r="G65" t="str">
+        <v>x</v>
+      </c>
+      <c r="H65" t="str">
+        <v>x</v>
+      </c>
+      <c r="I65" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Alarmnummer</v>
+      </c>
+      <c r="B66" t="str">
+        <v>In geval van calamiteiten kunt u contact opnemen met de alarmcentrale</v>
+      </c>
+      <c r="C66" t="str">
+        <v/>
+      </c>
+      <c r="D66" t="str">
+        <v/>
+      </c>
+      <c r="E66" t="str">
+        <v/>
+      </c>
+      <c r="F66" t="str">
+        <v>19 Alarmnummer               In geval van calamiteiten kunt u contact opnemen met de alarmcentrale</v>
+      </c>
+      <c r="G66" t="str">
+        <v>x</v>
+      </c>
+      <c r="H66" t="str">
+        <v>x</v>
+      </c>
+      <c r="I66" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>n/a</v>
+      </c>
+      <c r="B67" t="str">
+        <v>onder telefoonnummer +31 20 6515777.</v>
+      </c>
+      <c r="C67" t="str">
+        <v/>
+      </c>
+      <c r="D67" t="str">
+        <v/>
+      </c>
+      <c r="E67" t="str">
+        <v/>
+      </c>
+      <c r="F67" t="str">
+        <v>20                           onder telefoonnummer +31 20 6515777.</v>
+      </c>
+      <c r="G67" t="str">
+        <v>x</v>
+      </c>
+      <c r="H67" t="str">
+        <v/>
+      </c>
+      <c r="I67" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
         <v>Verzekerde rubrieken</v>
       </c>
-      <c r="B13" t="str">
-        <v/>
-      </c>
-      <c r="C13" t="str">
-        <v/>
-      </c>
-      <c r="D13" t="str">
-        <v/>
-      </c>
-      <c r="E13" t="str">
-        <v/>
-      </c>
-      <c r="F13" t="str">
-        <v>11 Verzekerde rubrieken</v>
-      </c>
-      <c r="G13" t="str">
+      <c r="B68" t="str">
+        <v xml:space="preserve">                  Verzekerd bedrag</v>
+      </c>
+      <c r="C68" t="str">
+        <v/>
+      </c>
+      <c r="D68" t="str">
+        <v/>
+      </c>
+      <c r="E68" t="str">
+        <v/>
+      </c>
+      <c r="F68" t="str">
+        <v>22 Verzekerde rubrieken                               Verzekerd bedrag</v>
+      </c>
+      <c r="G68" t="str">
+        <v>x</v>
+      </c>
+      <c r="H68" t="str">
+        <v>x</v>
+      </c>
+      <c r="I68" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>n/a</v>
+      </c>
+      <c r="B69" t="str">
+        <v>onder telefoonnummer +31 20 5929292.</v>
+      </c>
+      <c r="C69" t="str">
+        <v/>
+      </c>
+      <c r="D69" t="str">
+        <v/>
+      </c>
+      <c r="E69" t="str">
+        <v/>
+      </c>
+      <c r="F69" t="str">
+        <v>23                           onder telefoonnummer +31 20 5929292.</v>
+      </c>
+      <c r="G69" t="str">
+        <v/>
+      </c>
+      <c r="H69" t="str">
+        <v>x</v>
+      </c>
+      <c r="I69" t="str">
         <v>x</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G13"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I69"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2113,19 +3815,19 @@
         <v>regel template</v>
       </c>
       <c r="G1" t="str">
-        <v>P302</v>
+        <v>P315</v>
       </c>
       <c r="H1" t="str">
         <v>P306</v>
       </c>
       <c r="I1" t="str">
+        <v>P302</v>
+      </c>
+      <c r="J1" t="str">
         <v>P311</v>
       </c>
-      <c r="J1" t="str">
+      <c r="K1" t="str">
         <v>P313</v>
-      </c>
-      <c r="K1" t="str">
-        <v>P315</v>
       </c>
       <c r="L1" t="str">
         <v>P379</v>
@@ -2532,10 +4234,10 @@
         <v/>
       </c>
       <c r="J11" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K11" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L11" t="str">
         <v>x</v>
@@ -2573,10 +4275,10 @@
         <v/>
       </c>
       <c r="J12" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K12" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L12" t="str">
         <v>x</v>
@@ -2614,10 +4316,10 @@
         <v>x</v>
       </c>
       <c r="J13" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K13" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L13" t="str">
         <v/>
@@ -2655,10 +4357,10 @@
         <v>x</v>
       </c>
       <c r="J14" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K14" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L14" t="str">
         <v/>
@@ -2696,10 +4398,10 @@
         <v/>
       </c>
       <c r="J15" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K15" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L15" t="str">
         <v>x</v>
@@ -2737,10 +4439,10 @@
         <v/>
       </c>
       <c r="J16" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K16" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L16" t="str">
         <v>x</v>
@@ -2769,13 +4471,13 @@
         <v>06 Gebruik                      11465</v>
       </c>
       <c r="G17" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H17" t="str">
         <v>x</v>
       </c>
       <c r="I17" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J17" t="str">
         <v>x</v>
@@ -2810,13 +4512,13 @@
         <v/>
       </c>
       <c r="G18" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H18" t="str">
         <v>x</v>
       </c>
       <c r="I18" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J18" t="str">
         <v>x</v>
@@ -2848,7 +4550,7 @@
         <v/>
       </c>
       <c r="F19" t="str">
-        <v>06 Merk en type motor           11455 11457</v>
+        <v>07 Merk en type motor           11455 11457</v>
       </c>
       <c r="G19" t="str">
         <v>x</v>
@@ -2860,10 +4562,10 @@
         <v>x</v>
       </c>
       <c r="J19" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K19" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L19" t="str">
         <v/>
@@ -2901,10 +4603,10 @@
         <v>x</v>
       </c>
       <c r="J20" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K20" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L20" t="str">
         <v/>
@@ -2942,10 +4644,10 @@
         <v>x</v>
       </c>
       <c r="J21" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K21" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L21" t="str">
         <v/>
@@ -3065,10 +4767,10 @@
         <v/>
       </c>
       <c r="J24" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K24" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L24" t="str">
         <v>x</v>
@@ -3106,10 +4808,10 @@
         <v/>
       </c>
       <c r="J25" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K25" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L25" t="str">
         <v>x</v>
@@ -3120,10 +4822,10 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Merk en type volgboot</v>
+        <v>Motornummer</v>
       </c>
       <c r="B26" t="str">
-        <v>11483 11487</v>
+        <v>11454</v>
       </c>
       <c r="C26" t="str">
         <v/>
@@ -3135,7 +4837,7 @@
         <v/>
       </c>
       <c r="F26" t="str">
-        <v>08 Merk en type volgboot        11483 11487</v>
+        <v>08 Motornummer                  11454</v>
       </c>
       <c r="G26" t="str">
         <v>x</v>
@@ -3144,16 +4846,16 @@
         <v>x</v>
       </c>
       <c r="I26" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J26" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K26" t="str">
         <v>x</v>
       </c>
       <c r="L26" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M26" t="str">
         <v>x</v>
@@ -3164,7 +4866,7 @@
         <v/>
       </c>
       <c r="B27" t="str">
-        <v>11483</v>
+        <v>11454</v>
       </c>
       <c r="C27" t="str">
         <v/>
@@ -3185,16 +4887,16 @@
         <v>x</v>
       </c>
       <c r="I27" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J27" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K27" t="str">
         <v>x</v>
       </c>
       <c r="L27" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M27" t="str">
         <v>x</v>
@@ -3202,37 +4904,37 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v/>
+        <v>n/a</v>
       </c>
       <c r="B28" t="str">
-        <v>11487</v>
+        <v>11483</v>
       </c>
       <c r="C28" t="str">
         <v/>
       </c>
       <c r="D28" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E28" t="str">
-        <v>niet verwijderen</v>
+        <v/>
       </c>
       <c r="F28" t="str">
-        <v/>
+        <v>09                                                                                            11483</v>
       </c>
       <c r="G28" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H28" t="str">
         <v>x</v>
       </c>
       <c r="I28" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J28" t="str">
         <v/>
       </c>
       <c r="K28" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L28" t="str">
         <v/>
@@ -3243,22 +4945,22 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Motornummer</v>
+        <v/>
       </c>
       <c r="B29" t="str">
-        <v>11454</v>
+        <v>11483</v>
       </c>
       <c r="C29" t="str">
         <v/>
       </c>
       <c r="D29" t="str">
-        <v/>
+        <v>Rechts</v>
       </c>
       <c r="E29" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F29" t="str">
-        <v>08 Motornummer                  11454</v>
+        <v/>
       </c>
       <c r="G29" t="str">
         <v/>
@@ -3267,16 +4969,16 @@
         <v>x</v>
       </c>
       <c r="I29" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J29" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K29" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L29" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="M29" t="str">
         <v>x</v>
@@ -3284,34 +4986,34 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v/>
+        <v>Inboedel</v>
       </c>
       <c r="B30" t="str">
-        <v>11454</v>
+        <v>€ 11254</v>
       </c>
       <c r="C30" t="str">
         <v/>
       </c>
       <c r="D30" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E30" t="str">
-        <v>verwijderen</v>
+        <v/>
       </c>
       <c r="F30" t="str">
-        <v/>
+        <v>09 Inboedel                     € 11254</v>
       </c>
       <c r="G30" t="str">
         <v/>
       </c>
       <c r="H30" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I30" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J30" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K30" t="str">
         <v>x</v>
@@ -3325,28 +5027,28 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>n/a</v>
+        <v/>
       </c>
       <c r="B31" t="str">
-        <v>11483</v>
+        <v>11254</v>
       </c>
       <c r="C31" t="str">
-        <v/>
+        <v>Getal inclusief decimalen</v>
       </c>
       <c r="D31" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E31" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F31" t="str">
-        <v>09                                                                                            11483</v>
+        <v/>
       </c>
       <c r="G31" t="str">
         <v/>
       </c>
       <c r="H31" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I31" t="str">
         <v/>
@@ -3355,10 +5057,10 @@
         <v/>
       </c>
       <c r="K31" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L31" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M31" t="str">
         <v>x</v>
@@ -3366,34 +5068,34 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v/>
+        <v>Merk en type volgboot</v>
       </c>
       <c r="B32" t="str">
-        <v>11483</v>
+        <v>11483 11487</v>
       </c>
       <c r="C32" t="str">
         <v/>
       </c>
       <c r="D32" t="str">
-        <v>Rechts</v>
+        <v/>
       </c>
       <c r="E32" t="str">
-        <v>verwijderen</v>
+        <v/>
       </c>
       <c r="F32" t="str">
-        <v/>
+        <v>10 Merk en type volgboot        11483 11487</v>
       </c>
       <c r="G32" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H32" t="str">
         <v>x</v>
       </c>
       <c r="I32" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J32" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K32" t="str">
         <v/>
@@ -3407,31 +5109,31 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Inboedel</v>
+        <v/>
       </c>
       <c r="B33" t="str">
-        <v>€ 11254</v>
+        <v>11483</v>
       </c>
       <c r="C33" t="str">
         <v/>
       </c>
       <c r="D33" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E33" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F33" t="str">
-        <v>09 Inboedel                     € 11254</v>
+        <v/>
       </c>
       <c r="G33" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H33" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I33" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J33" t="str">
         <v>x</v>
@@ -3440,7 +5142,7 @@
         <v/>
       </c>
       <c r="L33" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="M33" t="str">
         <v>x</v>
@@ -3451,28 +5153,28 @@
         <v/>
       </c>
       <c r="B34" t="str">
-        <v>11254</v>
+        <v>11487</v>
       </c>
       <c r="C34" t="str">
-        <v>Getal inclusief decimalen</v>
+        <v/>
       </c>
       <c r="D34" t="str">
         <v>Links</v>
       </c>
       <c r="E34" t="str">
-        <v>verwijderen</v>
+        <v>niet verwijderen</v>
       </c>
       <c r="F34" t="str">
         <v/>
       </c>
       <c r="G34" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H34" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I34" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J34" t="str">
         <v>x</v>
@@ -3481,7 +5183,7 @@
         <v/>
       </c>
       <c r="L34" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="M34" t="str">
         <v>x</v>
@@ -3489,10 +5191,10 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Registratienummer</v>
+        <v>Merk motor volgboot</v>
       </c>
       <c r="B35" t="str">
-        <v>11480</v>
+        <v>10598</v>
       </c>
       <c r="C35" t="str">
         <v/>
@@ -3504,13 +5206,13 @@
         <v/>
       </c>
       <c r="F35" t="str">
-        <v>09 Registratienummer            11480</v>
+        <v>10 Merk motor volgboot          10598</v>
       </c>
       <c r="G35" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H35" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I35" t="str">
         <v>x</v>
@@ -3519,7 +5221,7 @@
         <v/>
       </c>
       <c r="K35" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L35" t="str">
         <v/>
@@ -3533,7 +5235,7 @@
         <v/>
       </c>
       <c r="B36" t="str">
-        <v>11480</v>
+        <v>10598</v>
       </c>
       <c r="C36" t="str">
         <v/>
@@ -3548,10 +5250,10 @@
         <v/>
       </c>
       <c r="G36" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H36" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I36" t="str">
         <v>x</v>
@@ -3560,7 +5262,7 @@
         <v/>
       </c>
       <c r="K36" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L36" t="str">
         <v/>
@@ -3571,10 +5273,10 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Merk motor volgboot</v>
+        <v>Nieuwwaarde garantie</v>
       </c>
       <c r="B37" t="str">
-        <v>10598</v>
+        <v>12348</v>
       </c>
       <c r="C37" t="str">
         <v/>
@@ -3586,10 +5288,10 @@
         <v/>
       </c>
       <c r="F37" t="str">
-        <v>10 Merk motor volgboot          10598</v>
+        <v>10 Nieuwwaarde garantie         12348</v>
       </c>
       <c r="G37" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H37" t="str">
         <v/>
@@ -3601,13 +5303,13 @@
         <v/>
       </c>
       <c r="K37" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L37" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M37" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="38">
@@ -3615,7 +5317,7 @@
         <v/>
       </c>
       <c r="B38" t="str">
-        <v>10598</v>
+        <v>12348</v>
       </c>
       <c r="C38" t="str">
         <v/>
@@ -3630,7 +5332,7 @@
         <v/>
       </c>
       <c r="G38" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H38" t="str">
         <v/>
@@ -3642,21 +5344,21 @@
         <v/>
       </c>
       <c r="K38" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L38" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M38" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Nieuwwaarde garantie</v>
+        <v>Duur nieuwwaarde garantie</v>
       </c>
       <c r="B39" t="str">
-        <v>12348</v>
+        <v>12398 maanden</v>
       </c>
       <c r="C39" t="str">
         <v/>
@@ -3668,7 +5370,7 @@
         <v/>
       </c>
       <c r="F39" t="str">
-        <v>10 Nieuwwaarde garantie         12348</v>
+        <v>11 Duur nieuwwaarde garantie    12398 maanden</v>
       </c>
       <c r="G39" t="str">
         <v/>
@@ -3680,16 +5382,16 @@
         <v/>
       </c>
       <c r="J39" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K39" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L39" t="str">
         <v>x</v>
       </c>
       <c r="M39" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="40">
@@ -3697,10 +5399,10 @@
         <v/>
       </c>
       <c r="B40" t="str">
-        <v>12348</v>
+        <v>12398</v>
       </c>
       <c r="C40" t="str">
-        <v/>
+        <v>Getal exclusief decimalen</v>
       </c>
       <c r="D40" t="str">
         <v>Links</v>
@@ -3721,24 +5423,24 @@
         <v/>
       </c>
       <c r="J40" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K40" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L40" t="str">
         <v>x</v>
       </c>
       <c r="M40" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Duur nieuwwaarde garantie</v>
+        <v>Registratienummer</v>
       </c>
       <c r="B41" t="str">
-        <v>12398 maanden</v>
+        <v>11480</v>
       </c>
       <c r="C41" t="str">
         <v/>
@@ -3750,16 +5452,16 @@
         <v/>
       </c>
       <c r="F41" t="str">
-        <v>11 Duur nieuwwaarde garantie    12398 maanden</v>
+        <v>11 Registratienummer            11480</v>
       </c>
       <c r="G41" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H41" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I41" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J41" t="str">
         <v>x</v>
@@ -3768,7 +5470,7 @@
         <v/>
       </c>
       <c r="L41" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="M41" t="str">
         <v/>
@@ -3779,10 +5481,10 @@
         <v/>
       </c>
       <c r="B42" t="str">
-        <v>12398</v>
+        <v>11480</v>
       </c>
       <c r="C42" t="str">
-        <v>Getal exclusief decimalen</v>
+        <v/>
       </c>
       <c r="D42" t="str">
         <v>Links</v>
@@ -3794,13 +5496,13 @@
         <v/>
       </c>
       <c r="G42" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H42" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I42" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J42" t="str">
         <v>x</v>
@@ -3809,7 +5511,7 @@
         <v/>
       </c>
       <c r="L42" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="M42" t="str">
         <v/>
@@ -3917,13 +5619,13 @@
         <v>12 Vaargebied                   10246</v>
       </c>
       <c r="G45" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H45" t="str">
         <v/>
       </c>
       <c r="I45" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J45" t="str">
         <v/>
@@ -3958,13 +5660,13 @@
         <v/>
       </c>
       <c r="G46" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H46" t="str">
         <v/>
       </c>
       <c r="I46" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J46" t="str">
         <v/>
@@ -4008,10 +5710,10 @@
         <v/>
       </c>
       <c r="J47" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K47" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L47" t="str">
         <v>x</v>
@@ -4049,10 +5751,10 @@
         <v/>
       </c>
       <c r="J48" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K48" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L48" t="str">
         <v>x</v>
@@ -4081,13 +5783,13 @@
         <v>13 Aankoopgarantie              12353 jaar</v>
       </c>
       <c r="G49" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H49" t="str">
         <v/>
       </c>
       <c r="I49" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J49" t="str">
         <v/>
@@ -4122,13 +5824,13 @@
         <v/>
       </c>
       <c r="G50" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H50" t="str">
         <v/>
       </c>
       <c r="I50" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J50" t="str">
         <v/>
@@ -4286,19 +5988,19 @@
         <v>13 Merk en type trailer         11493 11667</v>
       </c>
       <c r="G54" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H54" t="str">
         <v/>
       </c>
       <c r="I54" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J54" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K54" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L54" t="str">
         <v/>
@@ -4327,19 +6029,19 @@
         <v/>
       </c>
       <c r="G55" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H55" t="str">
         <v/>
       </c>
       <c r="I55" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J55" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K55" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L55" t="str">
         <v/>
@@ -4368,19 +6070,19 @@
         <v/>
       </c>
       <c r="G56" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H56" t="str">
         <v/>
       </c>
       <c r="I56" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J56" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K56" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L56" t="str">
         <v/>
@@ -4418,10 +6120,10 @@
         <v/>
       </c>
       <c r="J57" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K57" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L57" t="str">
         <v>x</v>
@@ -4459,10 +6161,10 @@
         <v/>
       </c>
       <c r="J58" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K58" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L58" t="str">
         <v>x</v>
@@ -4491,19 +6193,19 @@
         <v>14 Chassisnummer trailer        11491</v>
       </c>
       <c r="G59" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H59" t="str">
         <v>x</v>
       </c>
       <c r="I59" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J59" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K59" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L59" t="str">
         <v/>
@@ -4532,19 +6234,19 @@
         <v/>
       </c>
       <c r="G60" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H60" t="str">
         <v>x</v>
       </c>
       <c r="I60" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J60" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K60" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L60" t="str">
         <v/>
@@ -4573,13 +6275,13 @@
         <v>14 Eigen risico Totaal          € 10043</v>
       </c>
       <c r="G61" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H61" t="str">
         <v/>
       </c>
       <c r="I61" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J61" t="str">
         <v/>
@@ -4614,13 +6316,13 @@
         <v/>
       </c>
       <c r="G62" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H62" t="str">
         <v/>
       </c>
       <c r="I62" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J62" t="str">
         <v/>
@@ -4737,13 +6439,13 @@
         <v>15 Waarvan vrijwillig           € 11450</v>
       </c>
       <c r="G65" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H65" t="str">
         <v/>
       </c>
       <c r="I65" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J65" t="str">
         <v/>
@@ -4778,13 +6480,13 @@
         <v/>
       </c>
       <c r="G66" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H66" t="str">
         <v/>
       </c>
       <c r="I66" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J66" t="str">
         <v/>
@@ -4801,10 +6503,10 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Soort motor</v>
+        <v>Dekkingsgebied</v>
       </c>
       <c r="B67" t="str">
-        <v>11456</v>
+        <v>10246</v>
       </c>
       <c r="C67" t="str">
         <v/>
@@ -4816,13 +6518,13 @@
         <v/>
       </c>
       <c r="F67" t="str">
-        <v>16 Soort motor                  11456</v>
+        <v>16 Dekkingsgebied               10246</v>
       </c>
       <c r="G67" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H67" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I67" t="str">
         <v/>
@@ -4831,7 +6533,7 @@
         <v>x</v>
       </c>
       <c r="K67" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L67" t="str">
         <v>x</v>
@@ -4845,7 +6547,7 @@
         <v/>
       </c>
       <c r="B68" t="str">
-        <v>11456</v>
+        <v>10246</v>
       </c>
       <c r="C68" t="str">
         <v>Omschrijving</v>
@@ -4860,10 +6562,10 @@
         <v/>
       </c>
       <c r="G68" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H68" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I68" t="str">
         <v/>
@@ -4872,7 +6574,7 @@
         <v>x</v>
       </c>
       <c r="K68" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L68" t="str">
         <v>x</v>
@@ -4883,10 +6585,10 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Bouwjaar</v>
+        <v>Soort motor</v>
       </c>
       <c r="B69" t="str">
-        <v>11453</v>
+        <v>11456</v>
       </c>
       <c r="C69" t="str">
         <v/>
@@ -4898,7 +6600,7 @@
         <v/>
       </c>
       <c r="F69" t="str">
-        <v>17 Bouwjaar                     11453</v>
+        <v>16 Soort motor                  11456</v>
       </c>
       <c r="G69" t="str">
         <v/>
@@ -4913,10 +6615,10 @@
         <v/>
       </c>
       <c r="K69" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L69" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M69" t="str">
         <v>x</v>
@@ -4927,10 +6629,10 @@
         <v/>
       </c>
       <c r="B70" t="str">
-        <v>11453</v>
+        <v>11456</v>
       </c>
       <c r="C70" t="str">
-        <v>Getal exclusief decimalen</v>
+        <v>Omschrijving</v>
       </c>
       <c r="D70" t="str">
         <v>Links</v>
@@ -4954,10 +6656,10 @@
         <v/>
       </c>
       <c r="K70" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L70" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M70" t="str">
         <v>x</v>
@@ -4965,10 +6667,10 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Ligplaats</v>
+        <v>Bouwjaar</v>
       </c>
       <c r="B71" t="str">
-        <v>11449</v>
+        <v>11453</v>
       </c>
       <c r="C71" t="str">
         <v/>
@@ -4980,13 +6682,13 @@
         <v/>
       </c>
       <c r="F71" t="str">
-        <v>17 Ligplaats                    11449</v>
+        <v>17 Bouwjaar                     11453</v>
       </c>
       <c r="G71" t="str">
         <v/>
       </c>
       <c r="H71" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I71" t="str">
         <v/>
@@ -5001,7 +6703,7 @@
         <v/>
       </c>
       <c r="M71" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="72">
@@ -5009,10 +6711,10 @@
         <v/>
       </c>
       <c r="B72" t="str">
-        <v>11449</v>
+        <v>11453</v>
       </c>
       <c r="C72" t="str">
-        <v/>
+        <v>Getal exclusief decimalen</v>
       </c>
       <c r="D72" t="str">
         <v>Links</v>
@@ -5027,7 +6729,7 @@
         <v/>
       </c>
       <c r="H72" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I72" t="str">
         <v/>
@@ -5042,15 +6744,15 @@
         <v/>
       </c>
       <c r="M72" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Merk en type</v>
+        <v>Ligplaats</v>
       </c>
       <c r="B73" t="str">
-        <v>11455 11457</v>
+        <v>11449</v>
       </c>
       <c r="C73" t="str">
         <v/>
@@ -5062,25 +6764,25 @@
         <v/>
       </c>
       <c r="F73" t="str">
-        <v>17 Merk en type                 11455 11457</v>
+        <v>17 Ligplaats                    11449</v>
       </c>
       <c r="G73" t="str">
         <v/>
       </c>
       <c r="H73" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I73" t="str">
         <v/>
       </c>
       <c r="J73" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K73" t="str">
         <v/>
       </c>
       <c r="L73" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="M73" t="str">
         <v/>
@@ -5091,7 +6793,7 @@
         <v/>
       </c>
       <c r="B74" t="str">
-        <v>11455</v>
+        <v>11449</v>
       </c>
       <c r="C74" t="str">
         <v/>
@@ -5109,19 +6811,19 @@
         <v/>
       </c>
       <c r="H74" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I74" t="str">
         <v/>
       </c>
       <c r="J74" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K74" t="str">
         <v/>
       </c>
       <c r="L74" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="M74" t="str">
         <v/>
@@ -5129,22 +6831,22 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v/>
+        <v>Merk en type</v>
       </c>
       <c r="B75" t="str">
-        <v>11457</v>
+        <v>11455 11457</v>
       </c>
       <c r="C75" t="str">
         <v/>
       </c>
       <c r="D75" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E75" t="str">
-        <v>niet verwijderen</v>
+        <v/>
       </c>
       <c r="F75" t="str">
-        <v/>
+        <v>17 Merk en type                 11455 11457</v>
       </c>
       <c r="G75" t="str">
         <v/>
@@ -5156,10 +6858,10 @@
         <v/>
       </c>
       <c r="J75" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K75" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L75" t="str">
         <v>x</v>
@@ -5170,34 +6872,34 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Verzekerde rubrieken</v>
+        <v/>
       </c>
       <c r="B76" t="str">
-        <v xml:space="preserve">                        Verzekerd bedrag</v>
+        <v>11455</v>
       </c>
       <c r="C76" t="str">
         <v/>
       </c>
       <c r="D76" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E76" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F76" t="str">
-        <v>17 Verzekerde rubrieken                             Verzekerd bedrag</v>
+        <v/>
       </c>
       <c r="G76" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H76" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I76" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J76" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K76" t="str">
         <v>x</v>
@@ -5206,27 +6908,27 @@
         <v>x</v>
       </c>
       <c r="M76" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Bouwjaar motor</v>
+        <v/>
       </c>
       <c r="B77" t="str">
-        <v>11453</v>
+        <v>11457</v>
       </c>
       <c r="C77" t="str">
         <v/>
       </c>
       <c r="D77" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E77" t="str">
-        <v/>
+        <v>niet verwijderen</v>
       </c>
       <c r="F77" t="str">
-        <v>18 Bouwjaar motor               11453</v>
+        <v/>
       </c>
       <c r="G77" t="str">
         <v/>
@@ -5238,10 +6940,10 @@
         <v/>
       </c>
       <c r="J77" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K77" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L77" t="str">
         <v>x</v>
@@ -5252,28 +6954,28 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v/>
+        <v>No-claim</v>
       </c>
       <c r="B78" t="str">
-        <v>11453</v>
+        <v>Trede 10046 = 10050 %</v>
       </c>
       <c r="C78" t="str">
-        <v>Getal exclusief decimalen</v>
+        <v/>
       </c>
       <c r="D78" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E78" t="str">
-        <v>verwijderen</v>
+        <v/>
       </c>
       <c r="F78" t="str">
-        <v/>
+        <v>17 No-claim                     Trede 10046 = 10050 %</v>
       </c>
       <c r="G78" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H78" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I78" t="str">
         <v/>
@@ -5282,42 +6984,42 @@
         <v>x</v>
       </c>
       <c r="K78" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L78" t="str">
         <v>x</v>
       </c>
       <c r="M78" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Dekkingsgebied</v>
+        <v/>
       </c>
       <c r="B79" t="str">
-        <v>10246</v>
+        <v>10046</v>
       </c>
       <c r="C79" t="str">
         <v/>
       </c>
       <c r="D79" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E79" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F79" t="str">
-        <v>18 Dekkingsgebied               10246</v>
+        <v/>
       </c>
       <c r="G79" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H79" t="str">
         <v>x</v>
       </c>
       <c r="I79" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J79" t="str">
         <v>x</v>
@@ -5337,28 +7039,28 @@
         <v/>
       </c>
       <c r="B80" t="str">
-        <v>10246</v>
+        <v>10050</v>
       </c>
       <c r="C80" t="str">
-        <v>Omschrijving</v>
+        <v>Getal inclusief decimalen</v>
       </c>
       <c r="D80" t="str">
         <v>Links</v>
       </c>
       <c r="E80" t="str">
-        <v>verwijderen</v>
+        <v>niet verwijderen</v>
       </c>
       <c r="F80" t="str">
         <v/>
       </c>
       <c r="G80" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H80" t="str">
         <v>x</v>
       </c>
       <c r="I80" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J80" t="str">
         <v>x</v>
@@ -5375,10 +7077,10 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Eigen risico</v>
+        <v>Bouwjaar motor</v>
       </c>
       <c r="B81" t="str">
-        <v>€ 10043  10044</v>
+        <v>11453</v>
       </c>
       <c r="C81" t="str">
         <v/>
@@ -5390,7 +7092,7 @@
         <v/>
       </c>
       <c r="F81" t="str">
-        <v>19 Eigen risico                 € 10043  10044</v>
+        <v>18 Bouwjaar motor               11453</v>
       </c>
       <c r="G81" t="str">
         <v/>
@@ -5399,10 +7101,10 @@
         <v/>
       </c>
       <c r="I81" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J81" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K81" t="str">
         <v>x</v>
@@ -5411,7 +7113,7 @@
         <v>x</v>
       </c>
       <c r="M81" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="82">
@@ -5419,13 +7121,13 @@
         <v/>
       </c>
       <c r="B82" t="str">
-        <v>10043</v>
+        <v>11453</v>
       </c>
       <c r="C82" t="str">
-        <v>Getal inclusief decimalen</v>
+        <v>Getal exclusief decimalen</v>
       </c>
       <c r="D82" t="str">
-        <v>Rechts</v>
+        <v>Links</v>
       </c>
       <c r="E82" t="str">
         <v>verwijderen</v>
@@ -5440,10 +7142,10 @@
         <v/>
       </c>
       <c r="I82" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J82" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K82" t="str">
         <v>x</v>
@@ -5452,36 +7154,36 @@
         <v>x</v>
       </c>
       <c r="M82" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v/>
+        <v>Schadevrije jaren</v>
       </c>
       <c r="B83" t="str">
-        <v>10044</v>
+        <v>10049</v>
       </c>
       <c r="C83" t="str">
-        <v>Omschrijving</v>
+        <v/>
       </c>
       <c r="D83" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E83" t="str">
-        <v>niet verwijderen</v>
+        <v/>
       </c>
       <c r="F83" t="str">
-        <v/>
+        <v>18 Schadevrije jaren            10049</v>
       </c>
       <c r="G83" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H83" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I83" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J83" t="str">
         <v>x</v>
@@ -5498,31 +7200,31 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>No-claim</v>
+        <v/>
       </c>
       <c r="B84" t="str">
-        <v>Trede 10046 = 10050 %</v>
+        <v>10049</v>
       </c>
       <c r="C84" t="str">
-        <v/>
+        <v>Getal exclusief decimalen</v>
       </c>
       <c r="D84" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E84" t="str">
-        <v/>
+        <v>niet verwijderen</v>
       </c>
       <c r="F84" t="str">
-        <v>19 No-claim                     Trede 10046 = 10050 %</v>
+        <v/>
       </c>
       <c r="G84" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H84" t="str">
         <v>x</v>
       </c>
       <c r="I84" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J84" t="str">
         <v>x</v>
@@ -5539,31 +7241,31 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v/>
+        <v>Eigen risico</v>
       </c>
       <c r="B85" t="str">
-        <v>10046</v>
+        <v>€ 10043  10044</v>
       </c>
       <c r="C85" t="str">
         <v/>
       </c>
       <c r="D85" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E85" t="str">
-        <v>verwijderen</v>
+        <v/>
       </c>
       <c r="F85" t="str">
-        <v/>
+        <v>19 Eigen risico                 € 10043  10044</v>
       </c>
       <c r="G85" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H85" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I85" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J85" t="str">
         <v>x</v>
@@ -5583,28 +7285,28 @@
         <v/>
       </c>
       <c r="B86" t="str">
-        <v>10050</v>
+        <v>10043</v>
       </c>
       <c r="C86" t="str">
         <v>Getal inclusief decimalen</v>
       </c>
       <c r="D86" t="str">
-        <v>Links</v>
+        <v>Rechts</v>
       </c>
       <c r="E86" t="str">
-        <v>niet verwijderen</v>
+        <v>verwijderen</v>
       </c>
       <c r="F86" t="str">
         <v/>
       </c>
       <c r="G86" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H86" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I86" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J86" t="str">
         <v>x</v>
@@ -5621,25 +7323,25 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Soort brandstof</v>
+        <v/>
       </c>
       <c r="B87" t="str">
-        <v>10234</v>
+        <v>10044</v>
       </c>
       <c r="C87" t="str">
-        <v/>
+        <v>Omschrijving</v>
       </c>
       <c r="D87" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E87" t="str">
-        <v/>
+        <v>niet verwijderen</v>
       </c>
       <c r="F87" t="str">
-        <v>19 Soort brandstof              10234</v>
+        <v/>
       </c>
       <c r="G87" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H87" t="str">
         <v/>
@@ -5651,7 +7353,7 @@
         <v>x</v>
       </c>
       <c r="K87" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L87" t="str">
         <v>x</v>
@@ -5662,22 +7364,22 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v/>
+        <v>Soort brandstof</v>
       </c>
       <c r="B88" t="str">
         <v>10234</v>
       </c>
       <c r="C88" t="str">
-        <v>Omschrijving</v>
+        <v/>
       </c>
       <c r="D88" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E88" t="str">
-        <v>verwijderen</v>
+        <v/>
       </c>
       <c r="F88" t="str">
-        <v/>
+        <v>19 Soort brandstof              10234</v>
       </c>
       <c r="G88" t="str">
         <v/>
@@ -5689,10 +7391,10 @@
         <v/>
       </c>
       <c r="J88" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K88" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L88" t="str">
         <v>x</v>
@@ -5703,34 +7405,34 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Schadevrije jaren</v>
+        <v/>
       </c>
       <c r="B89" t="str">
-        <v>10049</v>
+        <v>10234</v>
       </c>
       <c r="C89" t="str">
-        <v/>
+        <v>Omschrijving</v>
       </c>
       <c r="D89" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E89" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F89" t="str">
-        <v>20 Schadevrije jaren            10049</v>
+        <v/>
       </c>
       <c r="G89" t="str">
         <v/>
       </c>
       <c r="H89" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I89" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J89" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K89" t="str">
         <v>x</v>
@@ -5744,34 +7446,34 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v/>
+        <v>Aantal pk</v>
       </c>
       <c r="B90" t="str">
-        <v>10049</v>
+        <v>11452</v>
       </c>
       <c r="C90" t="str">
-        <v>Getal exclusief decimalen</v>
+        <v/>
       </c>
       <c r="D90" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E90" t="str">
-        <v>niet verwijderen</v>
+        <v/>
       </c>
       <c r="F90" t="str">
-        <v/>
+        <v>21 Aantal pk                    11452</v>
       </c>
       <c r="G90" t="str">
         <v/>
       </c>
       <c r="H90" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I90" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J90" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K90" t="str">
         <v>x</v>
@@ -5785,22 +7487,22 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Aantal pk</v>
+        <v/>
       </c>
       <c r="B91" t="str">
         <v>11452</v>
       </c>
       <c r="C91" t="str">
-        <v/>
+        <v>Getal exclusief decimalen</v>
       </c>
       <c r="D91" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E91" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F91" t="str">
-        <v>21 Aantal pk                    11452</v>
+        <v/>
       </c>
       <c r="G91" t="str">
         <v/>
@@ -5812,10 +7514,10 @@
         <v/>
       </c>
       <c r="J91" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K91" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L91" t="str">
         <v>x</v>
@@ -5826,63 +7528,63 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v/>
+        <v>Eigen risico</v>
       </c>
       <c r="B92" t="str">
-        <v>11452</v>
+        <v>12945% 10044</v>
       </c>
       <c r="C92" t="str">
-        <v>Getal exclusief decimalen</v>
+        <v/>
       </c>
       <c r="D92" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E92" t="str">
-        <v>verwijderen</v>
+        <v/>
       </c>
       <c r="F92" t="str">
-        <v/>
+        <v>21 Eigen risico                 12945% 10044</v>
       </c>
       <c r="G92" t="str">
         <v/>
       </c>
       <c r="H92" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I92" t="str">
         <v/>
       </c>
       <c r="J92" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K92" t="str">
         <v/>
       </c>
       <c r="L92" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="M92" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Eigen risico</v>
+        <v/>
       </c>
       <c r="B93" t="str">
-        <v>12945% 10044</v>
+        <v>12945</v>
       </c>
       <c r="C93" t="str">
-        <v/>
+        <v>Getal inclusief decimalen</v>
       </c>
       <c r="D93" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E93" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F93" t="str">
-        <v>21 Eigen risico                 12945% 10044</v>
+        <v/>
       </c>
       <c r="G93" t="str">
         <v/>
@@ -5911,16 +7613,16 @@
         <v/>
       </c>
       <c r="B94" t="str">
-        <v>12945</v>
+        <v>10044</v>
       </c>
       <c r="C94" t="str">
-        <v>Getal inclusief decimalen</v>
+        <v>Omschrijving</v>
       </c>
       <c r="D94" t="str">
         <v>Links</v>
       </c>
       <c r="E94" t="str">
-        <v>verwijderen</v>
+        <v>niet verwijderen</v>
       </c>
       <c r="F94" t="str">
         <v/>
@@ -5949,43 +7651,43 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v/>
+        <v>Verzekerde rubrieken</v>
       </c>
       <c r="B95" t="str">
-        <v>10044</v>
+        <v xml:space="preserve">                        Verzekerd bedrag</v>
       </c>
       <c r="C95" t="str">
-        <v>Omschrijving</v>
+        <v/>
       </c>
       <c r="D95" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E95" t="str">
-        <v>niet verwijderen</v>
+        <v/>
       </c>
       <c r="F95" t="str">
-        <v/>
+        <v>21 Verzekerde rubrieken                             Verzekerd bedrag</v>
       </c>
       <c r="G95" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H95" t="str">
         <v>x</v>
       </c>
       <c r="I95" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J95" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K95" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L95" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="M95" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="96">
@@ -6099,10 +7801,10 @@
         <v/>
       </c>
       <c r="J98" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K98" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L98" t="str">
         <v>x</v>
@@ -6140,10 +7842,10 @@
         <v/>
       </c>
       <c r="J99" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K99" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L99" t="str">
         <v>x</v>
@@ -6181,10 +7883,10 @@
         <v/>
       </c>
       <c r="J100" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K100" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L100" t="str">
         <v>x</v>
@@ -6222,10 +7924,10 @@
         <v/>
       </c>
       <c r="J101" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K101" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L101" t="str">
         <v>x</v>
@@ -6509,10 +8211,10 @@
         <v/>
       </c>
       <c r="J108" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K108" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L108" t="str">
         <v>x</v>
@@ -6550,10 +8252,10 @@
         <v/>
       </c>
       <c r="J109" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K109" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L109" t="str">
         <v>x</v>
@@ -7132,10 +8834,10 @@
         <v>P363</v>
       </c>
       <c r="J1" t="str">
+        <v>P384</v>
+      </c>
+      <c r="K1" t="str">
         <v>P382</v>
-      </c>
-      <c r="K1" t="str">
-        <v>P384</v>
       </c>
     </row>
     <row r="2">
@@ -7272,10 +8974,10 @@
         <v/>
       </c>
       <c r="J5" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K5" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="6">
@@ -7307,10 +9009,10 @@
         <v/>
       </c>
       <c r="J6" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K6" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="7">
@@ -7412,10 +9114,10 @@
         <v>x</v>
       </c>
       <c r="J9" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K9" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="10">
@@ -7447,10 +9149,10 @@
         <v>x</v>
       </c>
       <c r="J10" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K10" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="11">
@@ -7692,10 +9394,10 @@
         <v>x</v>
       </c>
       <c r="J17" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K17" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="18">
@@ -7727,10 +9429,10 @@
         <v>x</v>
       </c>
       <c r="J18" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K18" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="19">
@@ -7762,10 +9464,10 @@
         <v/>
       </c>
       <c r="J19" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K19" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="20">
@@ -7797,10 +9499,10 @@
         <v/>
       </c>
       <c r="J20" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K20" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="21">
@@ -9617,10 +11319,10 @@
         <v/>
       </c>
       <c r="J72" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K72" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="73">
@@ -9792,10 +11494,10 @@
         <v/>
       </c>
       <c r="J77" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K77" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="78">
@@ -9827,10 +11529,10 @@
         <v/>
       </c>
       <c r="J78" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K78" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="79">
@@ -9862,10 +11564,10 @@
         <v/>
       </c>
       <c r="J79" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K79" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="80">
@@ -9889,7 +11591,7 @@
       <c r="F81" t="str">
         <v>21 Verzekerde rubrieken</v>
       </c>
-      <c r="K81" t="str">
+      <c r="J81" t="str">
         <v>x</v>
       </c>
     </row>
@@ -9927,13 +11629,13 @@
         <v>regel template</v>
       </c>
       <c r="G1" t="str">
+        <v>P306</v>
+      </c>
+      <c r="H1" t="str">
+        <v>P311</v>
+      </c>
+      <c r="I1" t="str">
         <v>P302</v>
-      </c>
-      <c r="H1" t="str">
-        <v>P306</v>
-      </c>
-      <c r="I1" t="str">
-        <v>P311</v>
       </c>
       <c r="J1" t="str">
         <v>P315</v>
@@ -9968,7 +11670,7 @@
         <v/>
       </c>
       <c r="F2" t="str">
-        <v>02 Soort verzekering                10142</v>
+        <v>02 Soort verzekering         10142</v>
       </c>
       <c r="G2" t="str">
         <v>x</v>
@@ -10100,7 +11802,7 @@
         <v/>
       </c>
       <c r="F5" t="str">
-        <v>03 Dekkingsgebied                   10246</v>
+        <v>03 Dekkingsgebied            10246</v>
       </c>
       <c r="G5" t="str">
         <v>x</v>
@@ -10323,10 +12025,10 @@
         <v>04 Hoedanigheid              10694</v>
       </c>
       <c r="G10" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H10" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I10" t="str">
         <v/>
@@ -10367,10 +12069,10 @@
         <v/>
       </c>
       <c r="G11" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H11" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I11" t="str">
         <v/>
@@ -10411,13 +12113,13 @@
         <v>04 Maximale reisduur                11497 dagen</v>
       </c>
       <c r="G12" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H12" t="str">
         <v/>
       </c>
       <c r="I12" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J12" t="str">
         <v/>
@@ -10455,13 +12157,13 @@
         <v/>
       </c>
       <c r="G13" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H13" t="str">
         <v/>
       </c>
       <c r="I13" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J13" t="str">
         <v/>
@@ -10502,10 +12204,10 @@
         <v/>
       </c>
       <c r="H14" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I14" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J14" t="str">
         <v/>
@@ -10546,10 +12248,10 @@
         <v/>
       </c>
       <c r="H15" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I15" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J15" t="str">
         <v/>
@@ -10587,13 +12289,13 @@
         <v>05 Eigen vakantieverblijf Nederland 11682</v>
       </c>
       <c r="G16" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H16" t="str">
         <v/>
       </c>
       <c r="I16" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J16" t="str">
         <v/>
@@ -10631,13 +12333,13 @@
         <v/>
       </c>
       <c r="G17" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H17" t="str">
         <v/>
       </c>
       <c r="I17" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J17" t="str">
         <v/>
@@ -10766,10 +12468,10 @@
         <v/>
       </c>
       <c r="H20" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I20" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J20" t="str">
         <v/>
@@ -10810,10 +12512,10 @@
         <v/>
       </c>
       <c r="H21" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I21" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J21" t="str">
         <v/>
@@ -10851,10 +12553,10 @@
         <v>05 Zakenreis meeverzekerd    11797</v>
       </c>
       <c r="G22" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H22" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I22" t="str">
         <v/>
@@ -10895,10 +12597,10 @@
         <v/>
       </c>
       <c r="G23" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H23" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I23" t="str">
         <v/>
@@ -10939,10 +12641,10 @@
         <v>06 Aantal personenauto's     11875</v>
       </c>
       <c r="G24" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H24" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I24" t="str">
         <v/>
@@ -10983,10 +12685,10 @@
         <v/>
       </c>
       <c r="G25" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H25" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I25" t="str">
         <v/>
@@ -11074,10 +12776,10 @@
         <v/>
       </c>
       <c r="H27" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I27" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J27" t="str">
         <v/>
@@ -11118,10 +12820,10 @@
         <v/>
       </c>
       <c r="H28" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I28" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J28" t="str">
         <v/>
@@ -11247,13 +12949,13 @@
         <v>06 Zakelijke reis                   11797</v>
       </c>
       <c r="G31" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H31" t="str">
         <v/>
       </c>
       <c r="I31" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J31" t="str">
         <v/>
@@ -11291,13 +12993,13 @@
         <v/>
       </c>
       <c r="G32" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H32" t="str">
         <v/>
       </c>
       <c r="I32" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J32" t="str">
         <v/>
@@ -11423,10 +13125,10 @@
         <v>07 Waarvan met aanhanger     11873</v>
       </c>
       <c r="G35" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H35" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I35" t="str">
         <v/>
@@ -11467,10 +13169,10 @@
         <v/>
       </c>
       <c r="G36" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H36" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I36" t="str">
         <v/>
@@ -11511,10 +13213,10 @@
         <v>08 Aantal vaartuigen         12420</v>
       </c>
       <c r="G37" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H37" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I37" t="str">
         <v/>
@@ -11555,10 +13257,10 @@
         <v/>
       </c>
       <c r="G38" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H38" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I38" t="str">
         <v/>
@@ -11596,13 +13298,13 @@
         <v/>
       </c>
       <c r="F39" t="str">
-        <v>08 Verzekerden               Naam                       Geboortedatum</v>
+        <v>08 Verzekerden                   Naam                       Geboortedatum</v>
       </c>
       <c r="G39" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H39" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I39" t="str">
         <v>x</v>
@@ -11625,10 +13327,10 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>n/a</v>
+        <v>Verzekerden</v>
       </c>
       <c r="B40" t="str">
-        <v>10631 10632 10630                      10633</v>
+        <v>Naam                       Geboortedatum                                         10630</v>
       </c>
       <c r="C40" t="str">
         <v/>
@@ -11640,19 +13342,19 @@
         <v/>
       </c>
       <c r="F40" t="str">
-        <v>09                           10631 10632 10630                      10633</v>
+        <v>10 Verzekerden               Naam                       Geboortedatum                                         10630</v>
       </c>
       <c r="G40" t="str">
         <v>x</v>
       </c>
       <c r="H40" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I40" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J40" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K40" t="str">
         <v/>
@@ -11664,7 +13366,7 @@
         <v/>
       </c>
       <c r="N40" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="41">
@@ -11672,16 +13374,16 @@
         <v/>
       </c>
       <c r="B41" t="str">
-        <v>10631</v>
+        <v>10630</v>
       </c>
       <c r="C41" t="str">
         <v/>
       </c>
       <c r="D41" t="str">
-        <v>Links</v>
+        <v>Rechts</v>
       </c>
       <c r="E41" t="str">
-        <v>niet verwijderen</v>
+        <v>verwijderen</v>
       </c>
       <c r="F41" t="str">
         <v/>
@@ -11690,13 +13392,13 @@
         <v>x</v>
       </c>
       <c r="H41" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I41" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J41" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K41" t="str">
         <v/>
@@ -11708,27 +13410,27 @@
         <v/>
       </c>
       <c r="N41" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v/>
+        <v>n/a</v>
       </c>
       <c r="B42" t="str">
-        <v>10632</v>
+        <v>10631 10632 10630                      10633</v>
       </c>
       <c r="C42" t="str">
         <v/>
       </c>
       <c r="D42" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E42" t="str">
-        <v>niet verwijderen</v>
+        <v/>
       </c>
       <c r="F42" t="str">
-        <v/>
+        <v>11                           10631 10632 10630                      10633</v>
       </c>
       <c r="G42" t="str">
         <v>x</v>
@@ -11760,7 +13462,7 @@
         <v/>
       </c>
       <c r="B43" t="str">
-        <v>10630</v>
+        <v>10631</v>
       </c>
       <c r="C43" t="str">
         <v/>
@@ -11769,7 +13471,7 @@
         <v>Links</v>
       </c>
       <c r="E43" t="str">
-        <v>verwijderen</v>
+        <v>niet verwijderen</v>
       </c>
       <c r="F43" t="str">
         <v/>
@@ -11804,10 +13506,10 @@
         <v/>
       </c>
       <c r="B44" t="str">
-        <v>10633</v>
+        <v>10632</v>
       </c>
       <c r="C44" t="str">
-        <v>Datum (DD-MM-EEJJ)</v>
+        <v/>
       </c>
       <c r="D44" t="str">
         <v>Links</v>
@@ -11845,22 +13547,22 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>n/a</v>
+        <v/>
       </c>
       <c r="B45" t="str">
-        <v>10637 10638 10636                      10639</v>
+        <v>10630</v>
       </c>
       <c r="C45" t="str">
         <v/>
       </c>
       <c r="D45" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E45" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F45" t="str">
-        <v>10                           10637 10638 10636                      10639</v>
+        <v/>
       </c>
       <c r="G45" t="str">
         <v>x</v>
@@ -11892,10 +13594,10 @@
         <v/>
       </c>
       <c r="B46" t="str">
-        <v>10637</v>
+        <v>10633</v>
       </c>
       <c r="C46" t="str">
-        <v/>
+        <v>Datum (DD-MM-EEJJ)</v>
       </c>
       <c r="D46" t="str">
         <v>Links</v>
@@ -11933,22 +13635,22 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v/>
+        <v>n/a</v>
       </c>
       <c r="B47" t="str">
-        <v>10638</v>
+        <v>10637 10638 10636                      10639</v>
       </c>
       <c r="C47" t="str">
         <v/>
       </c>
       <c r="D47" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E47" t="str">
-        <v>niet verwijderen</v>
+        <v/>
       </c>
       <c r="F47" t="str">
-        <v/>
+        <v>12                           10637 10638 10636                      10639</v>
       </c>
       <c r="G47" t="str">
         <v>x</v>
@@ -11980,7 +13682,7 @@
         <v/>
       </c>
       <c r="B48" t="str">
-        <v>10636</v>
+        <v>10637</v>
       </c>
       <c r="C48" t="str">
         <v/>
@@ -11989,7 +13691,7 @@
         <v>Links</v>
       </c>
       <c r="E48" t="str">
-        <v>verwijderen</v>
+        <v>niet verwijderen</v>
       </c>
       <c r="F48" t="str">
         <v/>
@@ -12024,10 +13726,10 @@
         <v/>
       </c>
       <c r="B49" t="str">
-        <v>10639</v>
+        <v>10638</v>
       </c>
       <c r="C49" t="str">
-        <v>Datum (DD-MM-EEJJ)</v>
+        <v/>
       </c>
       <c r="D49" t="str">
         <v>Links</v>
@@ -12065,34 +13767,34 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Verzekerden</v>
+        <v/>
       </c>
       <c r="B50" t="str">
-        <v>Naam                       Geboortedatum                                         10630</v>
+        <v>10636</v>
       </c>
       <c r="C50" t="str">
         <v/>
       </c>
       <c r="D50" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E50" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F50" t="str">
-        <v>10 Verzekerden               Naam                       Geboortedatum                                         10630</v>
+        <v/>
       </c>
       <c r="G50" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H50" t="str">
         <v>x</v>
       </c>
       <c r="I50" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J50" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K50" t="str">
         <v/>
@@ -12104,7 +13806,7 @@
         <v/>
       </c>
       <c r="N50" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="51">
@@ -12112,31 +13814,31 @@
         <v/>
       </c>
       <c r="B51" t="str">
-        <v>10630</v>
+        <v>10639</v>
       </c>
       <c r="C51" t="str">
-        <v/>
+        <v>Datum (DD-MM-EEJJ)</v>
       </c>
       <c r="D51" t="str">
-        <v>Rechts</v>
+        <v>Links</v>
       </c>
       <c r="E51" t="str">
-        <v>verwijderen</v>
+        <v>niet verwijderen</v>
       </c>
       <c r="F51" t="str">
         <v/>
       </c>
       <c r="G51" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H51" t="str">
         <v>x</v>
       </c>
       <c r="I51" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J51" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K51" t="str">
         <v/>
@@ -12148,7 +13850,7 @@
         <v/>
       </c>
       <c r="N51" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="52">
@@ -12168,7 +13870,7 @@
         <v/>
       </c>
       <c r="F52" t="str">
-        <v>11                           10643 10644 10642                      10645</v>
+        <v>13                           10643 10644 10642                      10645</v>
       </c>
       <c r="G52" t="str">
         <v>x</v>
@@ -12388,7 +14090,7 @@
         <v/>
       </c>
       <c r="F57" t="str">
-        <v>12                           10649 10650 10648                      10651</v>
+        <v>14                           10649 10650 10648                      10651</v>
       </c>
       <c r="G57" t="str">
         <v>x</v>
@@ -12608,7 +14310,7 @@
         <v/>
       </c>
       <c r="F62" t="str">
-        <v>13                           10655 10656 10654                      10657</v>
+        <v>15                           10655 10656 10654                      10657</v>
       </c>
       <c r="G62" t="str">
         <v>x</v>
@@ -12828,7 +14530,7 @@
         <v/>
       </c>
       <c r="F67" t="str">
-        <v>14                           10661 10662 10660                      10663</v>
+        <v>16                           10661 10662 10660                      10663</v>
       </c>
       <c r="G67" t="str">
         <v>x</v>
@@ -13048,7 +14750,7 @@
         <v/>
       </c>
       <c r="F72" t="str">
-        <v>15                           10667 10668 10666                      10669</v>
+        <v>17                           10667 10668 10666                      10669</v>
       </c>
       <c r="G72" t="str">
         <v>x</v>
@@ -13268,7 +14970,7 @@
         <v/>
       </c>
       <c r="F77" t="str">
-        <v>16                           10673 10674 10672                      10675</v>
+        <v>18                           10673 10674 10672                      10675</v>
       </c>
       <c r="G77" t="str">
         <v>x</v>
@@ -13488,7 +15190,7 @@
         <v/>
       </c>
       <c r="F82" t="str">
-        <v>17                           10679 10680 10678                      10681</v>
+        <v>19                           10679 10680 10678                      10681</v>
       </c>
       <c r="G82" t="str">
         <v>x</v>
@@ -13737,10 +15439,10 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Alarmnummer</v>
+        <v>n/a</v>
       </c>
       <c r="B88" t="str">
-        <v>In geval van calamiteiten kunt u contact opnemen met de alarmcentrale</v>
+        <v>onder telefoonnummer +31 70 314 75 75.</v>
       </c>
       <c r="C88" t="str">
         <v/>
@@ -13752,31 +15454,31 @@
         <v/>
       </c>
       <c r="F88" t="str">
-        <v>19 Alarmnummer               In geval van calamiteiten kunt u contact opnemen met de alarmcentrale</v>
+        <v>20                               onder telefoonnummer +31 70 314 75 75.</v>
       </c>
       <c r="G88" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H88" t="str">
         <v>x</v>
       </c>
       <c r="I88" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J88" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="K88" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="L88" t="str">
         <v/>
       </c>
       <c r="M88" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="N88" t="str">
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="89">
@@ -13784,7 +15486,7 @@
         <v>n/a</v>
       </c>
       <c r="B89" t="str">
-        <v>onder telefoonnummer +31 70 314 75 75.</v>
+        <v>onder telefoonnummer +31 30 256 77 77.</v>
       </c>
       <c r="C89" t="str">
         <v/>
@@ -13796,7 +15498,7 @@
         <v/>
       </c>
       <c r="F89" t="str">
-        <v>20                               onder telefoonnummer +31 70 314 75 75.</v>
+        <v>20                           onder telefoonnummer +31 30 256 77 77.</v>
       </c>
       <c r="G89" t="str">
         <v/>
@@ -13820,15 +15522,15 @@
         <v/>
       </c>
       <c r="N89" t="str">
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>n/a</v>
+        <v>Alarmnummer</v>
       </c>
       <c r="B90" t="str">
-        <v>onder telefoonnummer +31 30 256 77 77.</v>
+        <v>In geval van calamiteiten kunt u contact opnemen met de alarmcentrale</v>
       </c>
       <c r="C90" t="str">
         <v/>
@@ -13840,28 +15542,28 @@
         <v/>
       </c>
       <c r="F90" t="str">
-        <v>20                           onder telefoonnummer +31 30 256 77 77.</v>
+        <v>21 Alarmnummer               In geval van calamiteiten kunt u contact opnemen met de alarmcentrale</v>
       </c>
       <c r="G90" t="str">
         <v>x</v>
       </c>
       <c r="H90" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I90" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J90" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="K90" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="L90" t="str">
         <v/>
       </c>
       <c r="M90" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="N90" t="str">
         <v>x</v>
@@ -13931,10 +15633,10 @@
         <v>22                           onder telefoonnummer +31 71 364 62 00.</v>
       </c>
       <c r="G92" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H92" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I92" t="str">
         <v/>
@@ -13978,10 +15680,10 @@
         <v/>
       </c>
       <c r="H93" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="I93" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="J93" t="str">
         <v/>
@@ -14019,13 +15721,13 @@
         <v>22 Verzekerde rubrieken                                 Verzekerd bedrag</v>
       </c>
       <c r="G94" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="H94" t="str">
         <v/>
       </c>
       <c r="I94" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="J94" t="str">
         <v/>
@@ -14063,10 +15765,10 @@
         <v>24 Verzekerde rubrieken                                 Verzekerd bedrag</v>
       </c>
       <c r="G95" t="str">
-        <v/>
+        <v>x</v>
       </c>
       <c r="H95" t="str">
-        <v>x</v>
+        <v/>
       </c>
       <c r="I95" t="str">
         <v/>
@@ -15444,7 +17146,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -15469,13 +17171,7 @@
         <v>regel template</v>
       </c>
       <c r="G1" t="str">
-        <v>E430</v>
-      </c>
-      <c r="H1" t="str">
-        <v>P313</v>
-      </c>
-      <c r="I1" t="str">
-        <v>P384</v>
+        <v>P376</v>
       </c>
     </row>
     <row r="2">
@@ -15483,7 +17179,7 @@
         <v>Soort verzekering</v>
       </c>
       <c r="B2" t="str">
-        <v>80908</v>
+        <v>Doorlopende Reisverzekering</v>
       </c>
       <c r="C2" t="str">
         <v/>
@@ -15495,314 +17191,248 @@
         <v/>
       </c>
       <c r="F2" t="str">
-        <v>02 Soort verzekering         80908</v>
+        <v>02 Soort verzekering         Doorlopende Reisverzekering</v>
       </c>
       <c r="G2" t="str">
-        <v>x</v>
-      </c>
-      <c r="H2" t="str">
-        <v>x</v>
-      </c>
-      <c r="I2" t="str">
         <v>x</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v/>
+        <v>Dekkingsgebied</v>
       </c>
       <c r="B3" t="str">
-        <v>80908</v>
+        <v>10246</v>
       </c>
       <c r="C3" t="str">
-        <v>Omschrijving</v>
+        <v/>
       </c>
       <c r="D3" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E3" t="str">
-        <v>niet verwijderen</v>
+        <v/>
       </c>
       <c r="F3" t="str">
-        <v/>
+        <v>03 Dekkingsgebied            10246</v>
       </c>
       <c r="G3" t="str">
-        <v>x</v>
-      </c>
-      <c r="H3" t="str">
-        <v>x</v>
-      </c>
-      <c r="I3" t="str">
         <v>x</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Dekking</v>
+        <v/>
       </c>
       <c r="B4" t="str">
-        <v>86355</v>
+        <v>10246</v>
       </c>
       <c r="C4" t="str">
-        <v/>
+        <v>Omschrijving</v>
       </c>
       <c r="D4" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E4" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F4" t="str">
-        <v>04 Dekking                   86355</v>
+        <v/>
       </c>
       <c r="G4" t="str">
-        <v>x</v>
-      </c>
-      <c r="H4" t="str">
-        <v/>
-      </c>
-      <c r="I4" t="str">
         <v>x</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v/>
+        <v>Gezinssamenstelling</v>
       </c>
       <c r="B5" t="str">
-        <v>86355</v>
+        <v>10694</v>
       </c>
       <c r="C5" t="str">
-        <v>Omschrijving</v>
+        <v/>
       </c>
       <c r="D5" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E5" t="str">
-        <v>verwijderen</v>
+        <v/>
       </c>
       <c r="F5" t="str">
-        <v/>
+        <v>04 Gezinssamenstelling       10694</v>
       </c>
       <c r="G5" t="str">
-        <v>x</v>
-      </c>
-      <c r="H5" t="str">
-        <v/>
-      </c>
-      <c r="I5" t="str">
         <v>x</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Uitsluiten Medische kosten</v>
+        <v/>
       </c>
       <c r="B6" t="str">
-        <v>83164</v>
+        <v>10694</v>
       </c>
       <c r="C6" t="str">
-        <v/>
+        <v>Omschrijving</v>
       </c>
       <c r="D6" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E6" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F6" t="str">
-        <v>05 Uitsluiten Medische kosten83164</v>
+        <v/>
       </c>
       <c r="G6" t="str">
-        <v>x</v>
-      </c>
-      <c r="H6" t="str">
-        <v/>
-      </c>
-      <c r="I6" t="str">
         <v>x</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v/>
+        <v>Maximale reisduur</v>
       </c>
       <c r="B7" t="str">
-        <v>83164</v>
+        <v>11497 dagen</v>
       </c>
       <c r="C7" t="str">
         <v/>
       </c>
       <c r="D7" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E7" t="str">
-        <v>verwijderen</v>
+        <v/>
       </c>
       <c r="F7" t="str">
-        <v/>
+        <v>05 Maximale reisduur         11497 dagen</v>
       </c>
       <c r="G7" t="str">
-        <v>x</v>
-      </c>
-      <c r="H7" t="str">
-        <v/>
-      </c>
-      <c r="I7" t="str">
         <v>x</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Uitsluiten Ongevallen</v>
+        <v/>
       </c>
       <c r="B8" t="str">
-        <v>86392</v>
+        <v>11497</v>
       </c>
       <c r="C8" t="str">
-        <v/>
+        <v>Getal exclusief decimalen</v>
       </c>
       <c r="D8" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E8" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F8" t="str">
-        <v>06 Uitsluiten Ongevallen     86392</v>
+        <v/>
       </c>
       <c r="G8" t="str">
-        <v>x</v>
-      </c>
-      <c r="H8" t="str">
-        <v/>
-      </c>
-      <c r="I8" t="str">
         <v>x</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v/>
+        <v>Rubriek zakenreis</v>
       </c>
       <c r="B9" t="str">
-        <v>86392</v>
+        <v>11797</v>
       </c>
       <c r="C9" t="str">
         <v/>
       </c>
       <c r="D9" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E9" t="str">
-        <v>verwijderen</v>
+        <v/>
       </c>
       <c r="F9" t="str">
-        <v/>
+        <v>06 Rubriek zakenreis         11797</v>
       </c>
       <c r="G9" t="str">
-        <v>x</v>
-      </c>
-      <c r="H9" t="str">
-        <v/>
-      </c>
-      <c r="I9" t="str">
         <v>x</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Reisperiode</v>
+        <v/>
       </c>
       <c r="B10" t="str">
-        <v>Van 11826 tot en met 11825</v>
+        <v>11797</v>
       </c>
       <c r="C10" t="str">
         <v/>
       </c>
       <c r="D10" t="str">
-        <v/>
+        <v>Links</v>
       </c>
       <c r="E10" t="str">
-        <v/>
+        <v>verwijderen</v>
       </c>
       <c r="F10" t="str">
-        <v>07 Reisperiode               Van 11826 tot en met 11825</v>
+        <v/>
       </c>
       <c r="G10" t="str">
-        <v>x</v>
-      </c>
-      <c r="H10" t="str">
-        <v>x</v>
-      </c>
-      <c r="I10" t="str">
         <v>x</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v/>
+        <v>Alarmnummer</v>
       </c>
       <c r="B11" t="str">
-        <v>11826</v>
+        <v>In geval van calamiteiten kunt u contact opnemen met de alarmcentrale</v>
       </c>
       <c r="C11" t="str">
-        <v>Datum (DD mmm EEJJ)</v>
+        <v/>
       </c>
       <c r="D11" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E11" t="str">
-        <v>niet verwijderen</v>
+        <v/>
       </c>
       <c r="F11" t="str">
-        <v/>
+        <v>08 Alarmnummer               In geval van calamiteiten kunt u contact opnemen met de alarmcentrale</v>
       </c>
       <c r="G11" t="str">
-        <v>x</v>
-      </c>
-      <c r="H11" t="str">
-        <v>x</v>
-      </c>
-      <c r="I11" t="str">
         <v>x</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v/>
+        <v>n/a</v>
       </c>
       <c r="B12" t="str">
-        <v>11825</v>
+        <v>onder telefoonnummer +31 26 400 23 90.</v>
       </c>
       <c r="C12" t="str">
-        <v>Datum (DD mmm EEJJ)</v>
+        <v/>
       </c>
       <c r="D12" t="str">
-        <v>Links</v>
+        <v/>
       </c>
       <c r="E12" t="str">
-        <v>niet verwijderen</v>
+        <v/>
       </c>
       <c r="F12" t="str">
-        <v/>
+        <v>09                           onder telefoonnummer +31 26 400 23 90.</v>
       </c>
       <c r="G12" t="str">
-        <v>x</v>
-      </c>
-      <c r="H12" t="str">
-        <v>x</v>
-      </c>
-      <c r="I12" t="str">
         <v>x</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Boekdatum van de reis</v>
+        <v>Verzekerde rubrieken</v>
       </c>
       <c r="B13" t="str">
-        <v>11827</v>
+        <v/>
       </c>
       <c r="C13" t="str">
         <v/>
@@ -15814,1645 +17444,15 @@
         <v/>
       </c>
       <c r="F13" t="str">
-        <v>08 Boekdatum van de reis     11827</v>
+        <v>11 Verzekerde rubrieken</v>
       </c>
       <c r="G13" t="str">
-        <v>x</v>
-      </c>
-      <c r="H13" t="str">
-        <v>x</v>
-      </c>
-      <c r="I13" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v/>
-      </c>
-      <c r="B14" t="str">
-        <v>11827</v>
-      </c>
-      <c r="C14" t="str">
-        <v>Datum (DD mmm EEJJ)</v>
-      </c>
-      <c r="D14" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E14" t="str">
-        <v>niet verwijderen</v>
-      </c>
-      <c r="F14" t="str">
-        <v/>
-      </c>
-      <c r="G14" t="str">
-        <v>x</v>
-      </c>
-      <c r="H14" t="str">
-        <v>x</v>
-      </c>
-      <c r="I14" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>Dekkingsgebied</v>
-      </c>
-      <c r="B15" t="str">
-        <v>10246</v>
-      </c>
-      <c r="C15" t="str">
-        <v/>
-      </c>
-      <c r="D15" t="str">
-        <v/>
-      </c>
-      <c r="E15" t="str">
-        <v/>
-      </c>
-      <c r="F15" t="str">
-        <v>09 Dekkingsgebied            10246</v>
-      </c>
-      <c r="G15" t="str">
-        <v>x</v>
-      </c>
-      <c r="H15" t="str">
-        <v>x</v>
-      </c>
-      <c r="I15" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v/>
-      </c>
-      <c r="B16" t="str">
-        <v>10246</v>
-      </c>
-      <c r="C16" t="str">
-        <v>Omschrijving</v>
-      </c>
-      <c r="D16" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E16" t="str">
-        <v>verwijderen</v>
-      </c>
-      <c r="F16" t="str">
-        <v/>
-      </c>
-      <c r="G16" t="str">
-        <v>x</v>
-      </c>
-      <c r="H16" t="str">
-        <v>x</v>
-      </c>
-      <c r="I16" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>n/a</v>
-      </c>
-      <c r="B17" t="str">
-        <v>10630</v>
-      </c>
-      <c r="C17" t="str">
-        <v/>
-      </c>
-      <c r="D17" t="str">
-        <v/>
-      </c>
-      <c r="E17" t="str">
-        <v/>
-      </c>
-      <c r="F17" t="str">
-        <v>10                                                                                                 10630</v>
-      </c>
-      <c r="G17" t="str">
-        <v>x</v>
-      </c>
-      <c r="H17" t="str">
-        <v>x</v>
-      </c>
-      <c r="I17" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v/>
-      </c>
-      <c r="B18" t="str">
-        <v>10630</v>
-      </c>
-      <c r="C18" t="str">
-        <v/>
-      </c>
-      <c r="D18" t="str">
-        <v>Rechts</v>
-      </c>
-      <c r="E18" t="str">
-        <v>verwijderen</v>
-      </c>
-      <c r="F18" t="str">
-        <v/>
-      </c>
-      <c r="G18" t="str">
-        <v>x</v>
-      </c>
-      <c r="H18" t="str">
-        <v>x</v>
-      </c>
-      <c r="I18" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>Verzekerden</v>
-      </c>
-      <c r="B19" t="str">
-        <v>Naam                       Geboortedatum                              10630</v>
-      </c>
-      <c r="C19" t="str">
-        <v/>
-      </c>
-      <c r="D19" t="str">
-        <v/>
-      </c>
-      <c r="E19" t="str">
-        <v/>
-      </c>
-      <c r="F19" t="str">
-        <v>11 Verzekerden               Naam                       Geboortedatum                              10630</v>
-      </c>
-      <c r="G19" t="str">
-        <v>x</v>
-      </c>
-      <c r="H19" t="str">
-        <v>x</v>
-      </c>
-      <c r="I19" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v/>
-      </c>
-      <c r="B20" t="str">
-        <v>10630</v>
-      </c>
-      <c r="C20" t="str">
-        <v/>
-      </c>
-      <c r="D20" t="str">
-        <v>Rechts</v>
-      </c>
-      <c r="E20" t="str">
-        <v>verwijderen</v>
-      </c>
-      <c r="F20" t="str">
-        <v/>
-      </c>
-      <c r="G20" t="str">
-        <v>x</v>
-      </c>
-      <c r="H20" t="str">
-        <v>x</v>
-      </c>
-      <c r="I20" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>n/a</v>
-      </c>
-      <c r="B21" t="str">
-        <v>10631 10632 10630                      10633</v>
-      </c>
-      <c r="C21" t="str">
-        <v/>
-      </c>
-      <c r="D21" t="str">
-        <v/>
-      </c>
-      <c r="E21" t="str">
-        <v/>
-      </c>
-      <c r="F21" t="str">
-        <v>12                           10631 10632 10630                      10633</v>
-      </c>
-      <c r="G21" t="str">
-        <v>x</v>
-      </c>
-      <c r="H21" t="str">
-        <v>x</v>
-      </c>
-      <c r="I21" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v/>
-      </c>
-      <c r="B22" t="str">
-        <v>10631</v>
-      </c>
-      <c r="C22" t="str">
-        <v/>
-      </c>
-      <c r="D22" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E22" t="str">
-        <v>niet verwijderen</v>
-      </c>
-      <c r="F22" t="str">
-        <v/>
-      </c>
-      <c r="G22" t="str">
-        <v>x</v>
-      </c>
-      <c r="H22" t="str">
-        <v>x</v>
-      </c>
-      <c r="I22" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v/>
-      </c>
-      <c r="B23" t="str">
-        <v>10632</v>
-      </c>
-      <c r="C23" t="str">
-        <v/>
-      </c>
-      <c r="D23" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E23" t="str">
-        <v>niet verwijderen</v>
-      </c>
-      <c r="F23" t="str">
-        <v/>
-      </c>
-      <c r="G23" t="str">
-        <v>x</v>
-      </c>
-      <c r="H23" t="str">
-        <v>x</v>
-      </c>
-      <c r="I23" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v/>
-      </c>
-      <c r="B24" t="str">
-        <v>10630</v>
-      </c>
-      <c r="C24" t="str">
-        <v/>
-      </c>
-      <c r="D24" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E24" t="str">
-        <v>verwijderen</v>
-      </c>
-      <c r="F24" t="str">
-        <v/>
-      </c>
-      <c r="G24" t="str">
-        <v>x</v>
-      </c>
-      <c r="H24" t="str">
-        <v>x</v>
-      </c>
-      <c r="I24" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v/>
-      </c>
-      <c r="B25" t="str">
-        <v>10633</v>
-      </c>
-      <c r="C25" t="str">
-        <v>Datum (DD-MM-EEJJ)</v>
-      </c>
-      <c r="D25" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E25" t="str">
-        <v>niet verwijderen</v>
-      </c>
-      <c r="F25" t="str">
-        <v/>
-      </c>
-      <c r="G25" t="str">
-        <v>x</v>
-      </c>
-      <c r="H25" t="str">
-        <v>x</v>
-      </c>
-      <c r="I25" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>n/a</v>
-      </c>
-      <c r="B26" t="str">
-        <v>10637 10638 10636                      10639</v>
-      </c>
-      <c r="C26" t="str">
-        <v/>
-      </c>
-      <c r="D26" t="str">
-        <v/>
-      </c>
-      <c r="E26" t="str">
-        <v/>
-      </c>
-      <c r="F26" t="str">
-        <v>13                           10637 10638 10636                      10639</v>
-      </c>
-      <c r="G26" t="str">
-        <v>x</v>
-      </c>
-      <c r="H26" t="str">
-        <v>x</v>
-      </c>
-      <c r="I26" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v/>
-      </c>
-      <c r="B27" t="str">
-        <v>10637</v>
-      </c>
-      <c r="C27" t="str">
-        <v/>
-      </c>
-      <c r="D27" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E27" t="str">
-        <v>niet verwijderen</v>
-      </c>
-      <c r="F27" t="str">
-        <v/>
-      </c>
-      <c r="G27" t="str">
-        <v>x</v>
-      </c>
-      <c r="H27" t="str">
-        <v>x</v>
-      </c>
-      <c r="I27" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v/>
-      </c>
-      <c r="B28" t="str">
-        <v>10638</v>
-      </c>
-      <c r="C28" t="str">
-        <v/>
-      </c>
-      <c r="D28" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E28" t="str">
-        <v>niet verwijderen</v>
-      </c>
-      <c r="F28" t="str">
-        <v/>
-      </c>
-      <c r="G28" t="str">
-        <v>x</v>
-      </c>
-      <c r="H28" t="str">
-        <v>x</v>
-      </c>
-      <c r="I28" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v/>
-      </c>
-      <c r="B29" t="str">
-        <v>10636</v>
-      </c>
-      <c r="C29" t="str">
-        <v/>
-      </c>
-      <c r="D29" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E29" t="str">
-        <v>verwijderen</v>
-      </c>
-      <c r="F29" t="str">
-        <v/>
-      </c>
-      <c r="G29" t="str">
-        <v>x</v>
-      </c>
-      <c r="H29" t="str">
-        <v>x</v>
-      </c>
-      <c r="I29" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v/>
-      </c>
-      <c r="B30" t="str">
-        <v>10639</v>
-      </c>
-      <c r="C30" t="str">
-        <v>Datum (DD-MM-EEJJ)</v>
-      </c>
-      <c r="D30" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E30" t="str">
-        <v>niet verwijderen</v>
-      </c>
-      <c r="F30" t="str">
-        <v/>
-      </c>
-      <c r="G30" t="str">
-        <v>x</v>
-      </c>
-      <c r="H30" t="str">
-        <v>x</v>
-      </c>
-      <c r="I30" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v>n/a</v>
-      </c>
-      <c r="B31" t="str">
-        <v>10643 10644 10642                      10645</v>
-      </c>
-      <c r="C31" t="str">
-        <v/>
-      </c>
-      <c r="D31" t="str">
-        <v/>
-      </c>
-      <c r="E31" t="str">
-        <v/>
-      </c>
-      <c r="F31" t="str">
-        <v>14                           10643 10644 10642                      10645</v>
-      </c>
-      <c r="G31" t="str">
-        <v>x</v>
-      </c>
-      <c r="H31" t="str">
-        <v>x</v>
-      </c>
-      <c r="I31" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="str">
-        <v/>
-      </c>
-      <c r="B32" t="str">
-        <v>10643</v>
-      </c>
-      <c r="C32" t="str">
-        <v/>
-      </c>
-      <c r="D32" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E32" t="str">
-        <v>niet verwijderen</v>
-      </c>
-      <c r="F32" t="str">
-        <v/>
-      </c>
-      <c r="G32" t="str">
-        <v>x</v>
-      </c>
-      <c r="H32" t="str">
-        <v>x</v>
-      </c>
-      <c r="I32" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v/>
-      </c>
-      <c r="B33" t="str">
-        <v>10644</v>
-      </c>
-      <c r="C33" t="str">
-        <v/>
-      </c>
-      <c r="D33" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E33" t="str">
-        <v>niet verwijderen</v>
-      </c>
-      <c r="F33" t="str">
-        <v/>
-      </c>
-      <c r="G33" t="str">
-        <v>x</v>
-      </c>
-      <c r="H33" t="str">
-        <v>x</v>
-      </c>
-      <c r="I33" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v/>
-      </c>
-      <c r="B34" t="str">
-        <v>10642</v>
-      </c>
-      <c r="C34" t="str">
-        <v/>
-      </c>
-      <c r="D34" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E34" t="str">
-        <v>verwijderen</v>
-      </c>
-      <c r="F34" t="str">
-        <v/>
-      </c>
-      <c r="G34" t="str">
-        <v>x</v>
-      </c>
-      <c r="H34" t="str">
-        <v>x</v>
-      </c>
-      <c r="I34" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v/>
-      </c>
-      <c r="B35" t="str">
-        <v>10645</v>
-      </c>
-      <c r="C35" t="str">
-        <v>Datum (DD-MM-EEJJ)</v>
-      </c>
-      <c r="D35" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E35" t="str">
-        <v>niet verwijderen</v>
-      </c>
-      <c r="F35" t="str">
-        <v/>
-      </c>
-      <c r="G35" t="str">
-        <v>x</v>
-      </c>
-      <c r="H35" t="str">
-        <v>x</v>
-      </c>
-      <c r="I35" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v>n/a</v>
-      </c>
-      <c r="B36" t="str">
-        <v>10649 10650 10648                      10651</v>
-      </c>
-      <c r="C36" t="str">
-        <v/>
-      </c>
-      <c r="D36" t="str">
-        <v/>
-      </c>
-      <c r="E36" t="str">
-        <v/>
-      </c>
-      <c r="F36" t="str">
-        <v>15                           10649 10650 10648                      10651</v>
-      </c>
-      <c r="G36" t="str">
-        <v>x</v>
-      </c>
-      <c r="H36" t="str">
-        <v>x</v>
-      </c>
-      <c r="I36" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v/>
-      </c>
-      <c r="B37" t="str">
-        <v>10649</v>
-      </c>
-      <c r="C37" t="str">
-        <v/>
-      </c>
-      <c r="D37" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E37" t="str">
-        <v>niet verwijderen</v>
-      </c>
-      <c r="F37" t="str">
-        <v/>
-      </c>
-      <c r="G37" t="str">
-        <v>x</v>
-      </c>
-      <c r="H37" t="str">
-        <v>x</v>
-      </c>
-      <c r="I37" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="str">
-        <v/>
-      </c>
-      <c r="B38" t="str">
-        <v>10650</v>
-      </c>
-      <c r="C38" t="str">
-        <v/>
-      </c>
-      <c r="D38" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E38" t="str">
-        <v>niet verwijderen</v>
-      </c>
-      <c r="F38" t="str">
-        <v/>
-      </c>
-      <c r="G38" t="str">
-        <v>x</v>
-      </c>
-      <c r="H38" t="str">
-        <v>x</v>
-      </c>
-      <c r="I38" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="str">
-        <v/>
-      </c>
-      <c r="B39" t="str">
-        <v>10648</v>
-      </c>
-      <c r="C39" t="str">
-        <v/>
-      </c>
-      <c r="D39" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E39" t="str">
-        <v>verwijderen</v>
-      </c>
-      <c r="F39" t="str">
-        <v/>
-      </c>
-      <c r="G39" t="str">
-        <v>x</v>
-      </c>
-      <c r="H39" t="str">
-        <v>x</v>
-      </c>
-      <c r="I39" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="str">
-        <v/>
-      </c>
-      <c r="B40" t="str">
-        <v>10651</v>
-      </c>
-      <c r="C40" t="str">
-        <v>Datum (DD-MM-EEJJ)</v>
-      </c>
-      <c r="D40" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E40" t="str">
-        <v>niet verwijderen</v>
-      </c>
-      <c r="F40" t="str">
-        <v/>
-      </c>
-      <c r="G40" t="str">
-        <v>x</v>
-      </c>
-      <c r="H40" t="str">
-        <v>x</v>
-      </c>
-      <c r="I40" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="str">
-        <v>n/a</v>
-      </c>
-      <c r="B41" t="str">
-        <v>10655 10656 10654                      10657</v>
-      </c>
-      <c r="C41" t="str">
-        <v/>
-      </c>
-      <c r="D41" t="str">
-        <v/>
-      </c>
-      <c r="E41" t="str">
-        <v/>
-      </c>
-      <c r="F41" t="str">
-        <v>16                           10655 10656 10654                      10657</v>
-      </c>
-      <c r="G41" t="str">
-        <v>x</v>
-      </c>
-      <c r="H41" t="str">
-        <v>x</v>
-      </c>
-      <c r="I41" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="str">
-        <v/>
-      </c>
-      <c r="B42" t="str">
-        <v>10655</v>
-      </c>
-      <c r="C42" t="str">
-        <v/>
-      </c>
-      <c r="D42" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E42" t="str">
-        <v>niet verwijderen</v>
-      </c>
-      <c r="F42" t="str">
-        <v/>
-      </c>
-      <c r="G42" t="str">
-        <v>x</v>
-      </c>
-      <c r="H42" t="str">
-        <v>x</v>
-      </c>
-      <c r="I42" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="str">
-        <v/>
-      </c>
-      <c r="B43" t="str">
-        <v>10656</v>
-      </c>
-      <c r="C43" t="str">
-        <v/>
-      </c>
-      <c r="D43" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E43" t="str">
-        <v>niet verwijderen</v>
-      </c>
-      <c r="F43" t="str">
-        <v/>
-      </c>
-      <c r="G43" t="str">
-        <v>x</v>
-      </c>
-      <c r="H43" t="str">
-        <v>x</v>
-      </c>
-      <c r="I43" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="str">
-        <v/>
-      </c>
-      <c r="B44" t="str">
-        <v>10654</v>
-      </c>
-      <c r="C44" t="str">
-        <v/>
-      </c>
-      <c r="D44" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E44" t="str">
-        <v>verwijderen</v>
-      </c>
-      <c r="F44" t="str">
-        <v/>
-      </c>
-      <c r="G44" t="str">
-        <v>x</v>
-      </c>
-      <c r="H44" t="str">
-        <v>x</v>
-      </c>
-      <c r="I44" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="str">
-        <v/>
-      </c>
-      <c r="B45" t="str">
-        <v>10657</v>
-      </c>
-      <c r="C45" t="str">
-        <v>Datum (DD-MM-EEJJ)</v>
-      </c>
-      <c r="D45" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E45" t="str">
-        <v>niet verwijderen</v>
-      </c>
-      <c r="F45" t="str">
-        <v/>
-      </c>
-      <c r="G45" t="str">
-        <v>x</v>
-      </c>
-      <c r="H45" t="str">
-        <v>x</v>
-      </c>
-      <c r="I45" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="str">
-        <v>n/a</v>
-      </c>
-      <c r="B46" t="str">
-        <v>10661 10662 10660                      10663</v>
-      </c>
-      <c r="C46" t="str">
-        <v/>
-      </c>
-      <c r="D46" t="str">
-        <v/>
-      </c>
-      <c r="E46" t="str">
-        <v/>
-      </c>
-      <c r="F46" t="str">
-        <v>17                           10661 10662 10660                      10663</v>
-      </c>
-      <c r="G46" t="str">
-        <v>x</v>
-      </c>
-      <c r="H46" t="str">
-        <v>x</v>
-      </c>
-      <c r="I46" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="str">
-        <v/>
-      </c>
-      <c r="B47" t="str">
-        <v>10661</v>
-      </c>
-      <c r="C47" t="str">
-        <v/>
-      </c>
-      <c r="D47" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E47" t="str">
-        <v>niet verwijderen</v>
-      </c>
-      <c r="F47" t="str">
-        <v/>
-      </c>
-      <c r="G47" t="str">
-        <v>x</v>
-      </c>
-      <c r="H47" t="str">
-        <v>x</v>
-      </c>
-      <c r="I47" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="str">
-        <v/>
-      </c>
-      <c r="B48" t="str">
-        <v>10662</v>
-      </c>
-      <c r="C48" t="str">
-        <v/>
-      </c>
-      <c r="D48" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E48" t="str">
-        <v>niet verwijderen</v>
-      </c>
-      <c r="F48" t="str">
-        <v/>
-      </c>
-      <c r="G48" t="str">
-        <v>x</v>
-      </c>
-      <c r="H48" t="str">
-        <v>x</v>
-      </c>
-      <c r="I48" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="str">
-        <v/>
-      </c>
-      <c r="B49" t="str">
-        <v>10660</v>
-      </c>
-      <c r="C49" t="str">
-        <v/>
-      </c>
-      <c r="D49" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E49" t="str">
-        <v>verwijderen</v>
-      </c>
-      <c r="F49" t="str">
-        <v/>
-      </c>
-      <c r="G49" t="str">
-        <v>x</v>
-      </c>
-      <c r="H49" t="str">
-        <v>x</v>
-      </c>
-      <c r="I49" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="str">
-        <v/>
-      </c>
-      <c r="B50" t="str">
-        <v>10663</v>
-      </c>
-      <c r="C50" t="str">
-        <v>Datum (DD-MM-EEJJ)</v>
-      </c>
-      <c r="D50" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E50" t="str">
-        <v>niet verwijderen</v>
-      </c>
-      <c r="F50" t="str">
-        <v/>
-      </c>
-      <c r="G50" t="str">
-        <v>x</v>
-      </c>
-      <c r="H50" t="str">
-        <v>x</v>
-      </c>
-      <c r="I50" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="str">
-        <v>n/a</v>
-      </c>
-      <c r="B51" t="str">
-        <v>10667 10668 10666                      10669</v>
-      </c>
-      <c r="C51" t="str">
-        <v/>
-      </c>
-      <c r="D51" t="str">
-        <v/>
-      </c>
-      <c r="E51" t="str">
-        <v/>
-      </c>
-      <c r="F51" t="str">
-        <v>18                           10667 10668 10666                      10669</v>
-      </c>
-      <c r="G51" t="str">
-        <v>x</v>
-      </c>
-      <c r="H51" t="str">
-        <v>x</v>
-      </c>
-      <c r="I51" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="str">
-        <v/>
-      </c>
-      <c r="B52" t="str">
-        <v>10667</v>
-      </c>
-      <c r="C52" t="str">
-        <v/>
-      </c>
-      <c r="D52" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E52" t="str">
-        <v>niet verwijderen</v>
-      </c>
-      <c r="F52" t="str">
-        <v/>
-      </c>
-      <c r="G52" t="str">
-        <v>x</v>
-      </c>
-      <c r="H52" t="str">
-        <v>x</v>
-      </c>
-      <c r="I52" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="str">
-        <v/>
-      </c>
-      <c r="B53" t="str">
-        <v>10668</v>
-      </c>
-      <c r="C53" t="str">
-        <v/>
-      </c>
-      <c r="D53" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E53" t="str">
-        <v>niet verwijderen</v>
-      </c>
-      <c r="F53" t="str">
-        <v/>
-      </c>
-      <c r="G53" t="str">
-        <v>x</v>
-      </c>
-      <c r="H53" t="str">
-        <v>x</v>
-      </c>
-      <c r="I53" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="str">
-        <v/>
-      </c>
-      <c r="B54" t="str">
-        <v>10666</v>
-      </c>
-      <c r="C54" t="str">
-        <v/>
-      </c>
-      <c r="D54" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E54" t="str">
-        <v>verwijderen</v>
-      </c>
-      <c r="F54" t="str">
-        <v/>
-      </c>
-      <c r="G54" t="str">
-        <v>x</v>
-      </c>
-      <c r="H54" t="str">
-        <v>x</v>
-      </c>
-      <c r="I54" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="str">
-        <v/>
-      </c>
-      <c r="B55" t="str">
-        <v>10669</v>
-      </c>
-      <c r="C55" t="str">
-        <v>Datum (DD-MM-EEJJ)</v>
-      </c>
-      <c r="D55" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E55" t="str">
-        <v>niet verwijderen</v>
-      </c>
-      <c r="F55" t="str">
-        <v/>
-      </c>
-      <c r="G55" t="str">
-        <v>x</v>
-      </c>
-      <c r="H55" t="str">
-        <v>x</v>
-      </c>
-      <c r="I55" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="str">
-        <v>n/a</v>
-      </c>
-      <c r="B56" t="str">
-        <v>10673 10674 10672                      10675</v>
-      </c>
-      <c r="C56" t="str">
-        <v/>
-      </c>
-      <c r="D56" t="str">
-        <v/>
-      </c>
-      <c r="E56" t="str">
-        <v/>
-      </c>
-      <c r="F56" t="str">
-        <v>19                           10673 10674 10672                      10675</v>
-      </c>
-      <c r="G56" t="str">
-        <v>x</v>
-      </c>
-      <c r="H56" t="str">
-        <v>x</v>
-      </c>
-      <c r="I56" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="str">
-        <v/>
-      </c>
-      <c r="B57" t="str">
-        <v>10673</v>
-      </c>
-      <c r="C57" t="str">
-        <v/>
-      </c>
-      <c r="D57" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E57" t="str">
-        <v>niet verwijderen</v>
-      </c>
-      <c r="F57" t="str">
-        <v/>
-      </c>
-      <c r="G57" t="str">
-        <v>x</v>
-      </c>
-      <c r="H57" t="str">
-        <v>x</v>
-      </c>
-      <c r="I57" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="str">
-        <v/>
-      </c>
-      <c r="B58" t="str">
-        <v>10674</v>
-      </c>
-      <c r="C58" t="str">
-        <v/>
-      </c>
-      <c r="D58" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E58" t="str">
-        <v>niet verwijderen</v>
-      </c>
-      <c r="F58" t="str">
-        <v/>
-      </c>
-      <c r="G58" t="str">
-        <v>x</v>
-      </c>
-      <c r="H58" t="str">
-        <v>x</v>
-      </c>
-      <c r="I58" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="str">
-        <v/>
-      </c>
-      <c r="B59" t="str">
-        <v>10672</v>
-      </c>
-      <c r="C59" t="str">
-        <v/>
-      </c>
-      <c r="D59" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E59" t="str">
-        <v>verwijderen</v>
-      </c>
-      <c r="F59" t="str">
-        <v/>
-      </c>
-      <c r="G59" t="str">
-        <v>x</v>
-      </c>
-      <c r="H59" t="str">
-        <v>x</v>
-      </c>
-      <c r="I59" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="str">
-        <v/>
-      </c>
-      <c r="B60" t="str">
-        <v>10675</v>
-      </c>
-      <c r="C60" t="str">
-        <v>Datum (DD-MM-EEJJ)</v>
-      </c>
-      <c r="D60" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E60" t="str">
-        <v>niet verwijderen</v>
-      </c>
-      <c r="F60" t="str">
-        <v/>
-      </c>
-      <c r="G60" t="str">
-        <v>x</v>
-      </c>
-      <c r="H60" t="str">
-        <v>x</v>
-      </c>
-      <c r="I60" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="str">
-        <v>n/a</v>
-      </c>
-      <c r="B61" t="str">
-        <v>10679 10680 10678                      10681</v>
-      </c>
-      <c r="C61" t="str">
-        <v/>
-      </c>
-      <c r="D61" t="str">
-        <v/>
-      </c>
-      <c r="E61" t="str">
-        <v/>
-      </c>
-      <c r="F61" t="str">
-        <v>20                           10679 10680 10678                      10681</v>
-      </c>
-      <c r="G61" t="str">
-        <v>x</v>
-      </c>
-      <c r="H61" t="str">
-        <v>x</v>
-      </c>
-      <c r="I61" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="str">
-        <v/>
-      </c>
-      <c r="B62" t="str">
-        <v>10679</v>
-      </c>
-      <c r="C62" t="str">
-        <v/>
-      </c>
-      <c r="D62" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E62" t="str">
-        <v>niet verwijderen</v>
-      </c>
-      <c r="F62" t="str">
-        <v/>
-      </c>
-      <c r="G62" t="str">
-        <v>x</v>
-      </c>
-      <c r="H62" t="str">
-        <v>x</v>
-      </c>
-      <c r="I62" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="str">
-        <v/>
-      </c>
-      <c r="B63" t="str">
-        <v>10680</v>
-      </c>
-      <c r="C63" t="str">
-        <v/>
-      </c>
-      <c r="D63" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E63" t="str">
-        <v>niet verwijderen</v>
-      </c>
-      <c r="F63" t="str">
-        <v/>
-      </c>
-      <c r="G63" t="str">
-        <v>x</v>
-      </c>
-      <c r="H63" t="str">
-        <v>x</v>
-      </c>
-      <c r="I63" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="str">
-        <v/>
-      </c>
-      <c r="B64" t="str">
-        <v>10678</v>
-      </c>
-      <c r="C64" t="str">
-        <v/>
-      </c>
-      <c r="D64" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E64" t="str">
-        <v>verwijderen</v>
-      </c>
-      <c r="F64" t="str">
-        <v/>
-      </c>
-      <c r="G64" t="str">
-        <v>x</v>
-      </c>
-      <c r="H64" t="str">
-        <v>x</v>
-      </c>
-      <c r="I64" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="str">
-        <v/>
-      </c>
-      <c r="B65" t="str">
-        <v>10681</v>
-      </c>
-      <c r="C65" t="str">
-        <v>Datum (DD-MM-EEJJ)</v>
-      </c>
-      <c r="D65" t="str">
-        <v>Links</v>
-      </c>
-      <c r="E65" t="str">
-        <v>niet verwijderen</v>
-      </c>
-      <c r="F65" t="str">
-        <v/>
-      </c>
-      <c r="G65" t="str">
-        <v>x</v>
-      </c>
-      <c r="H65" t="str">
-        <v>x</v>
-      </c>
-      <c r="I65" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="str">
-        <v>n/a</v>
-      </c>
-      <c r="B66" t="str">
-        <v>onder telefoonnummer +31 20 6515777.</v>
-      </c>
-      <c r="C66" t="str">
-        <v/>
-      </c>
-      <c r="D66" t="str">
-        <v/>
-      </c>
-      <c r="E66" t="str">
-        <v/>
-      </c>
-      <c r="F66" t="str">
-        <v>20                           onder telefoonnummer +31 20 6515777.</v>
-      </c>
-      <c r="G66" t="str">
-        <v/>
-      </c>
-      <c r="H66" t="str">
-        <v>x</v>
-      </c>
-      <c r="I66" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="str">
-        <v>Alarmnummer</v>
-      </c>
-      <c r="B67" t="str">
-        <v>In geval van calamiteiten kunt u contact opnemen met de alarmcentrale</v>
-      </c>
-      <c r="C67" t="str">
-        <v/>
-      </c>
-      <c r="D67" t="str">
-        <v/>
-      </c>
-      <c r="E67" t="str">
-        <v/>
-      </c>
-      <c r="F67" t="str">
-        <v>22 Alarmnummer               In geval van calamiteiten kunt u contact opnemen met de alarmcentrale</v>
-      </c>
-      <c r="G67" t="str">
-        <v>x</v>
-      </c>
-      <c r="H67" t="str">
-        <v>x</v>
-      </c>
-      <c r="I67" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="str">
-        <v>n/a</v>
-      </c>
-      <c r="B68" t="str">
-        <v>onder telefoonnummer +31 20 5929292.</v>
-      </c>
-      <c r="C68" t="str">
-        <v/>
-      </c>
-      <c r="D68" t="str">
-        <v/>
-      </c>
-      <c r="E68" t="str">
-        <v/>
-      </c>
-      <c r="F68" t="str">
-        <v>23                           onder telefoonnummer +31 20 5929292.</v>
-      </c>
-      <c r="G68" t="str">
-        <v>x</v>
-      </c>
-      <c r="H68" t="str">
-        <v/>
-      </c>
-      <c r="I68" t="str">
-        <v>x</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="str">
-        <v>Verzekerde rubrieken</v>
-      </c>
-      <c r="B69" t="str">
-        <v xml:space="preserve">                  Verzekerd bedrag</v>
-      </c>
-      <c r="C69" t="str">
-        <v/>
-      </c>
-      <c r="D69" t="str">
-        <v/>
-      </c>
-      <c r="E69" t="str">
-        <v/>
-      </c>
-      <c r="F69" t="str">
-        <v>25 Verzekerde rubrieken                               Verzekerd bedrag</v>
-      </c>
-      <c r="G69" t="str">
-        <v>x</v>
-      </c>
-      <c r="H69" t="str">
-        <v>x</v>
-      </c>
-      <c r="I69" t="str">
         <v>x</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I69"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G13"/>
   </ignoredErrors>
 </worksheet>
 </file>